--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="653">
   <si>
     <t>Date</t>
   </si>
@@ -46,25 +46,61 @@
     <t>Digital Certificate</t>
   </si>
   <si>
+    <t>25.06.2015</t>
+  </si>
+  <si>
+    <t>Петро Петрович Воробієнко</t>
+  </si>
+  <si>
+    <t>Біткоїн та криптовалюти</t>
+  </si>
+  <si>
+    <t>6a4ffdbe1ed0f8840e14</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6a4ffdbe1ed0f8840e14b6db4bff9760bc987d5625e5201292b08aed70857871</t>
+  </si>
+  <si>
+    <t>HDLO+6gqDKL6E1jY/yWe9Hplo2WEmku01/xcGjkY9NVTEr68XT2ZpqZF91a1D9JbnKkJg1UuljvPQDEfKRYAitM=</t>
+  </si>
+  <si>
+    <t>QRs/certificate_Петро_Петрович_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>10.05.2016</t>
   </si>
   <si>
+    <t>Nikita Magda</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies and Distributed Systems</t>
+  </si>
+  <si>
+    <t>120bd82d7172f419e94a</t>
+  </si>
+  <si>
+    <t>120bd82d7172f419e94a36c0569d138e9b446a64fab789c568eeacd4d2caa09d</t>
+  </si>
+  <si>
+    <t>HL/S5ow1QPozfKwI1cDRfp+h8sLtxXuxGlTDhhX9Rk8OYiSML1LOd3RwysGcf0ZTK3oLyrYpOiW7SgN6uB2ZYGE=</t>
+  </si>
+  <si>
+    <t>QRs/certificate_Nikita_Magda_QR_codecreate.svg</t>
+  </si>
+  <si>
     <t>Нестеров Максим</t>
   </si>
   <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
-  </si>
-  <si>
     <t>7776d9c6e0001a76107b</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>7776d9c6e0001a76107b0284e01a144a3aed813958d5e7bce48b027495e82afa</t>
   </si>
   <si>
-    <t>HLC5z4t8xC2YGKI5mLBpvDsQ3DOM3PbbILeTlOKwjBm4K0esTGfEknzQuCJ2yEB6ovYnuMtL+MmBHQck4r/Og7Q</t>
+    <t>HLC5z4t8xC2YGKI5mLBpvDsQ3DOM3PbbILeTlOKwjBm4K0esTGfEknzQuCJ2yEB6ovYnuMtL+MmBHQck4r/Og7Q=</t>
   </si>
   <si>
     <t>QRs/certificate_Нестеров_Максим_QR_codecreate.svg</t>
@@ -79,7 +115,7 @@
     <t>713facacdbf8f652c8610afd6e64092c8427e1ab7444e96bc7e943ded9a5dd29</t>
   </si>
   <si>
-    <t>G68tQOmxtEYSkwR0sAY0ML8dBFo2Wi5mIbiy/fK07in9KXs9kunnFY/GlAbA/kda8OlqjC0Lk97BBUjUuPnTpHk</t>
+    <t>G68tQOmxtEYSkwR0sAY0ML8dBFo2Wi5mIbiy/fK07in9KXs9kunnFY/GlAbA/kda8OlqjC0Lk97BBUjUuPnTpHk=</t>
   </si>
   <si>
     <t>QRs/certificate_Alexey_Shendrick_QR_codecreate.svg</t>
@@ -94,7 +130,7 @@
     <t>bc62e9ab6329532534ace6fe4d36515ce315511d36a0a2420647ddb8d28daa38</t>
   </si>
   <si>
-    <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4</t>
+    <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4=</t>
   </si>
   <si>
     <t>QRs/certificate_Anastasia_Sapozhkova_QR_codecreate.svg</t>
@@ -109,7 +145,7 @@
     <t>3e163d56162b3979e4badaf8d8fbfeec9629b8942206f4f2a3f91c147016cb09</t>
   </si>
   <si>
-    <t>GzNRug/B6l+rL3to9AZ/VXpmusTsWvucAR9DOc2FTvxrM93KfyaXy/tA1JNI2m3n6U6h0HTVd5LDJ42ktB0U0wI</t>
+    <t>GzNRug/B6l+rL3to9AZ/VXpmusTsWvucAR9DOc2FTvxrM93KfyaXy/tA1JNI2m3n6U6h0HTVd5LDJ42ktB0U0wI=</t>
   </si>
   <si>
     <t>QRs/certificate_Den_Galkin_QR_codecreate.svg</t>
@@ -124,7 +160,7 @@
     <t>891f08e57eb1bd3bea4e169b1df313875b2d3fd48811754e675eea95bb2b8412</t>
   </si>
   <si>
-    <t>G/OqvWSw7yJjGNtQrDOgmqM+KDGFPtg2ik0kjJI3j4VcUnwk8Er+CGUs7gv6f0fzp9aYI8HWFOe1JYwKeX4iB9o</t>
+    <t>G/OqvWSw7yJjGNtQrDOgmqM+KDGFPtg2ik0kjJI3j4VcUnwk8Er+CGUs7gv6f0fzp9aYI8HWFOe1JYwKeX4iB9o=</t>
   </si>
   <si>
     <t>QRs/certificate_Daniyil_Yakovlev_QR_codecreate.svg</t>
@@ -139,7 +175,7 @@
     <t>c590c783aa219fbe06df5ed529bb01516823edee562bfa23cd9b2cf6e93b061e</t>
   </si>
   <si>
-    <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q</t>
+    <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q=</t>
   </si>
   <si>
     <t>QRs/certificate_Алексей_Демидов_QR_codecreate.svg</t>
@@ -154,7 +190,7 @@
     <t>6819c42faf3df4b54606b2271608fdb78e2bce3a9f203353d151ec15a514655d</t>
   </si>
   <si>
-    <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ</t>
+    <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Анатолий_Дедов_QR_codecreate.svg</t>
@@ -169,7 +205,7 @@
     <t>feb2f6fb9b7013cdb75585443b352b528962ee5c7476802ded789ad3723619ba</t>
   </si>
   <si>
-    <t>HOuQkxXy/PqMOZJFmEUoMQk95GdnTEdDxzlbCmyKlOZmDvKXPg/DKRRZ4kEEvI30D+swVXxp4x8eKy1TYChtps8</t>
+    <t>HOuQkxXy/PqMOZJFmEUoMQk95GdnTEdDxzlbCmyKlOZmDvKXPg/DKRRZ4kEEvI30D+swVXxp4x8eKy1TYChtps8=</t>
   </si>
   <si>
     <t>QRs/certificate_Денис_Руденко_QR_codecreate.svg</t>
@@ -184,7 +220,7 @@
     <t>fda42cc06646502437e9202623114e5b97772cd844883aa81d87f1b74d2166d6</t>
   </si>
   <si>
-    <t>G1RRBhBcOU6M8nvMrq1O5P7aq2wiUecvqkXw/SoQk+GOLYc0oML5nQiOMrDAiM90Q67nNRLBMjlL8RfqtQngLZ8</t>
+    <t>G1RRBhBcOU6M8nvMrq1O5P7aq2wiUecvqkXw/SoQk+GOLYc0oML5nQiOMrDAiM90Q67nNRLBMjlL8RfqtQngLZ8=</t>
   </si>
   <si>
     <t>QRs/certificate_Illia_Fariatiev_QR_codecreate.svg</t>
@@ -199,7 +235,7 @@
     <t>a6fb5a41b6d13e14df850f54ac28aaaacbbd1b141c7c4a9a120e20bc3e4bf6ea</t>
   </si>
   <si>
-    <t>G6l/nUfobqeYO+SaS/PyhLMSJWjouG2QrzL8m9JyLZPmdXpYmDUXWPL30/Vaz60KIPhLXWqj6JP2YoqtYXmpn9k</t>
+    <t>G6l/nUfobqeYO+SaS/PyhLMSJWjouG2QrzL8m9JyLZPmdXpYmDUXWPL30/Vaz60KIPhLXWqj6JP2YoqtYXmpn9k=</t>
   </si>
   <si>
     <t>QRs/certificate_Костюк_Александр_QR_codecreate.svg</t>
@@ -214,7 +250,7 @@
     <t>9b118e6f29f1ede241719c388e04f48ad065c0d609e5d2e9e80bce34de7db5ab</t>
   </si>
   <si>
-    <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM</t>
+    <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM=</t>
   </si>
   <si>
     <t>QRs/certificate_Марина_Боровая_QR_codecreate.svg</t>
@@ -229,7 +265,7 @@
     <t>5c1b9e808df46c68b681502cd50b75cf67b10511258fcf935299a6126efa5f32</t>
   </si>
   <si>
-    <t>G3+B366TAXptnN3HvQySms9KyzVyfDsYIXw3O8Lw3Q6DdbZU0hTkIcnc0CTYsgjyxaTjGqf+1uDrdEWWYpXgpc4</t>
+    <t>G3+B366TAXptnN3HvQySms9KyzVyfDsYIXw3O8Lw3Q6DdbZU0hTkIcnc0CTYsgjyxaTjGqf+1uDrdEWWYpXgpc4=</t>
   </si>
   <si>
     <t>QRs/certificate_Мордвинов_Роман_QR_codecreate.svg</t>
@@ -244,7 +280,7 @@
     <t>6518718807d5eb30c6c9195ab9cf23a2d9616724fee4651cb9953de5267e3511</t>
   </si>
   <si>
-    <t>G4Jpj2CKvbUWopbxx+r1S4P4a00i1vVFiWxaDaid3qXMd+O3iUkAcnZLIXUHDkeeObPXvwnDyWfVdP81UEiVhN8</t>
+    <t>G4Jpj2CKvbUWopbxx+r1S4P4a00i1vVFiWxaDaid3qXMd+O3iUkAcnZLIXUHDkeeObPXvwnDyWfVdP81UEiVhN8=</t>
   </si>
   <si>
     <t>QRs/certificate_Сергей_Романько_QR_codecreate.svg</t>
@@ -259,7 +295,7 @@
     <t>7ab727f74724666241dae770f32d974d84413570bcebc4fce3f9040aceedd99d</t>
   </si>
   <si>
-    <t>G5UswIvpVEAXG7zWhMchCB6uvXSRacPk9rNvBDGtXpCjMRkXkOvyNsz3nz5I+OHrYByOypWdRVomNhRH7wBxt98</t>
+    <t>G5UswIvpVEAXG7zWhMchCB6uvXSRacPk9rNvBDGtXpCjMRkXkOvyNsz3nz5I+OHrYByOypWdRVomNhRH7wBxt98=</t>
   </si>
   <si>
     <t>QRs/certificate_Синельников_Александр_QR_codecreate.svg</t>
@@ -274,7 +310,7 @@
     <t>647a501ba7b055539a366166bc75563c70b486be75915eae5c7f8867ae2fee47</t>
   </si>
   <si>
-    <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk</t>
+    <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk=</t>
   </si>
   <si>
     <t>QRs/certificate_Скрипник_Александр_QR_codecreate.svg</t>
@@ -289,7 +325,7 @@
     <t>a79170e13976c7fb4b25c5f0945c90f039a2be87a99405d8f4d7d9fe02bc72f0</t>
   </si>
   <si>
-    <t>HJl2ppwA2A8OAdeoTUQgSeFpehYnbukxEkKsCk8a9B4cA67t4VuZQFywBceNl4+PyteA/KbcDlSe0tpcE0uy6KE</t>
+    <t>HJl2ppwA2A8OAdeoTUQgSeFpehYnbukxEkKsCk8a9B4cA67t4VuZQFywBceNl4+PyteA/KbcDlSe0tpcE0uy6KE=</t>
   </si>
   <si>
     <t>QRs/certificate_Солонский_Александр_QR_codecreate.svg</t>
@@ -307,7 +343,7 @@
     <t>68a22a5fd14f57c69fca2d21578e7e78da8be3c2619327d7381d73c7073f8a16</t>
   </si>
   <si>
-    <t>HNTazPdprjLP4Yf9ZgRIBFtjR6r25k2krvvvcDmOBhT6JfM8SxjU+De2Q5fzGm4VHpNMegOp06EnNohbpzpEMI4</t>
+    <t>HNTazPdprjLP4Yf9ZgRIBFtjR6r25k2krvvvcDmOBhT6JfM8SxjU+De2Q5fzGm4VHpNMegOp06EnNohbpzpEMI4=</t>
   </si>
   <si>
     <t>QRs/certificate_Anton_Zaporozhchenko_QR_codecreate.svg</t>
@@ -322,7 +358,7 @@
     <t>644ade322b6ff6e78ca7a495cd2c7ae7c0b581de4066b8e2d009207b187f68bf</t>
   </si>
   <si>
-    <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g</t>
+    <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksiy_Ponomorev_QR_codecreate.svg</t>
@@ -337,7 +373,7 @@
     <t>842e79dae3a380dfd109c60d24eed036eff12c0ba8e8330f6615df7e0ad83e30</t>
   </si>
   <si>
-    <t>G0QqHpt8SIjtEhZqu8ZwIdhaXdZLvLGNQMQTrINPsoNmdYf0Yp9854j+mcSOrLJh/dpq6aGZergC2+OcIJmIy5I</t>
+    <t>G0QqHpt8SIjtEhZqu8ZwIdhaXdZLvLGNQMQTrINPsoNmdYf0Yp9854j+mcSOrLJh/dpq6aGZergC2+OcIJmIy5I=</t>
   </si>
   <si>
     <t>QRs/certificate_Pavel_Brilliant_QR_codecreate.svg</t>
@@ -352,7 +388,7 @@
     <t>4792c452f46dcad5dc28891f4618cba51ac5048016423cee0a1f67caf0c0ec25</t>
   </si>
   <si>
-    <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc</t>
+    <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc=</t>
   </si>
   <si>
     <t>QRs/certificate_Volodymyr_Kavetskyy_QR_codecreate.svg</t>
@@ -367,7 +403,7 @@
     <t>2d4a0bde8c6689a48dd722bf1e0c66685db34dad13a24ea3cf4b3e06574aceea</t>
   </si>
   <si>
-    <t>G8QdtgHByifGkRpvkwoyqyHYBnvngvqGpsE0+OYg0l4/alH5hKrukluT0vymRI89FuPQaP5NZXhJw5qBqr/o2SQ</t>
+    <t>G8QdtgHByifGkRpvkwoyqyHYBnvngvqGpsE0+OYg0l4/alH5hKrukluT0vymRI89FuPQaP5NZXhJw5qBqr/o2SQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Vladyslav_Minakov_QR_codecreate.svg</t>
@@ -385,7 +421,7 @@
     <t>0521a62341bdf875b13cb846d58424a231c6d67e70d90e61d1a88a7b586c641e</t>
   </si>
   <si>
-    <t>HA2ozpf6FmCR9/D/F1XgLiiwPlUjJLoag15bW5+L4fQHD0Fzs7c7/2KGC/bsQG8Qb9PP7XBe0ZLiDxxYN1sfvlc</t>
+    <t>HA2ozpf6FmCR9/D/F1XgLiiwPlUjJLoag15bW5+L4fQHD0Fzs7c7/2KGC/bsQG8Qb9PP7XBe0ZLiDxxYN1sfvlc=</t>
   </si>
   <si>
     <t>QRs/certificate_Yevheniia_Shchypeleva_QR_codecreate.svg</t>
@@ -400,7 +436,7 @@
     <t>4f48e4e99c3da0fb42caf31d69a0ba79d78a07c30db4f14beea24fa33f90268f</t>
   </si>
   <si>
-    <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo</t>
+    <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo=</t>
   </si>
   <si>
     <t>QRs/certificate_Kolhatin_Andrii_QR_codecreate.svg</t>
@@ -415,7 +451,7 @@
     <t>d4b5738e77864e53ce128a0840951b19f7a9972ca4e45be665c7eb486a98346c</t>
   </si>
   <si>
-    <t>G9GctEnd76pKgGDyI7+aE9V09Cbs9aumDPiqIQigvacdBmKIzpoQDCwHI7E+a/k9BOzv+g7d0xz+Gge0BLfJFfQ</t>
+    <t>G9GctEnd76pKgGDyI7+aE9V09Cbs9aumDPiqIQigvacdBmKIzpoQDCwHI7E+a/k9BOzv+g7d0xz+Gge0BLfJFfQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Heorhii_Kholodov_QR_codecreate.svg</t>
@@ -436,7 +472,7 @@
     <t>4f3f959ddb01c9c60ac6dfe9771f8f47dfc824c63c8875b96ea038108ea9ad82</t>
   </si>
   <si>
-    <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0</t>
+    <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0=</t>
   </si>
   <si>
     <t>QRs/certificate_Aleksandr_Gnatyuk_QR_codecreate.svg</t>
@@ -451,7 +487,7 @@
     <t>a51bf90f03e9a9966a7b4bac03c15b0c9ff3d89bf2d0f667bab7c0721ae133e4</t>
   </si>
   <si>
-    <t>HEGH5/OOhT4reguIiiTH6APFTbnlV5C1KUyZ1pDo2cj6OGuhq/LbQm/JPTRM/O7tZRuIRfzN9JFsrrjCWCFPlk4</t>
+    <t>HEGH5/OOhT4reguIiiTH6APFTbnlV5C1KUyZ1pDo2cj6OGuhq/LbQm/JPTRM/O7tZRuIRfzN9JFsrrjCWCFPlk4=</t>
   </si>
   <si>
     <t>QRs/certificate_Aleksandr_Kurbatov_QR_codecreate.svg</t>
@@ -466,7 +502,7 @@
     <t>61e95fea0ae6e1feb6707d2d3c0f4e1c8c9c13f4b7b78281e6f31d6cc38d495d</t>
   </si>
   <si>
-    <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY</t>
+    <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY=</t>
   </si>
   <si>
     <t>QRs/certificate_Aleksandr_Ivanov_QR_codecreate.svg</t>
@@ -481,7 +517,7 @@
     <t>0002559ec4d84de76125e921c7f0529fa0ba815378d1bf1d1f15d4858b64cc2a</t>
   </si>
   <si>
-    <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E</t>
+    <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E=</t>
   </si>
   <si>
     <t>QRs/certificate_Artyom_Ahmetzyanov_QR_codecreate.svg</t>
@@ -496,7 +532,7 @@
     <t>4b7a3aafcdb6a121a2ad88fb96a81eead5c3afa1a62811d577f4ec1c0dcbeff3</t>
   </si>
   <si>
-    <t>HBlAzPzVISCrhkXzo8GZ6W8Z84V6yqNwfy72EfWfgfhWCfoC3kzzdLh2hOyRRt8A/hleQIggp11lEkfjiBwU3FI</t>
+    <t>HBlAzPzVISCrhkXzo8GZ6W8Z84V6yqNwfy72EfWfgfhWCfoC3kzzdLh2hOyRRt8A/hleQIggp11lEkfjiBwU3FI=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksii_Khramov_QR_codecreate.svg</t>
@@ -511,7 +547,7 @@
     <t>3ea0bd0948b83484cc4315a8b8d72e014923cb4c94df5bfe3e0d3fd60c45470d</t>
   </si>
   <si>
-    <t>HAt2BcTILIRTPMZAwC+3r/wauy6mFamx0lLEvPl8T8u8X9L6TNJ2cd8B6X1E3f2E4izbyj19WA5Tr9VyW1AY1Qg</t>
+    <t>HAt2BcTILIRTPMZAwC+3r/wauy6mFamx0lLEvPl8T8u8X9L6TNJ2cd8B6X1E3f2E4izbyj19WA5Tr9VyW1AY1Qg=</t>
   </si>
   <si>
     <t>QRs/certificate_Nodar_Alyoshin_QR_codecreate.svg</t>
@@ -526,7 +562,7 @@
     <t>6a808d3f71a4b54e6a600a385a7ff8fd8c40714468cbab6bf0c28c1b727e1776</t>
   </si>
   <si>
-    <t>G+SXoVDF+C1xZEypC8G1DkMNZU2K/YTniKoPmEOKvao7SAs1KY2p8RFoJlol9Hi5x+ZnLMocF64cXyB82fj4/co</t>
+    <t>G+SXoVDF+C1xZEypC8G1DkMNZU2K/YTniKoPmEOKvao7SAs1KY2p8RFoJlol9Hi5x+ZnLMocF64cXyB82fj4/co=</t>
   </si>
   <si>
     <t>QRs/certificate_Marina_Osadchuk_QR_codecreate.svg</t>
@@ -541,7 +577,7 @@
     <t>92bbf7707fb85ceb1820890a6a926a406a05cbcfffb30a1d58257b137f355767</t>
   </si>
   <si>
-    <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE</t>
+    <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE=</t>
   </si>
   <si>
     <t>QRs/certificate_Konstantin_Nechvolod_QR_codecreate.svg</t>
@@ -556,7 +592,7 @@
     <t>fba37e527897160fa39ec89582d8e356058ad871219a5637760d40cd08367e88</t>
   </si>
   <si>
-    <t>HKkfJL99tKlg2eavVbzwdMxgOf61qj23+C38oRfT9S7yAurKw4uk38Arvj54gJ4diOc7XAAJJWI5WZpjkH+GVD4</t>
+    <t>HKkfJL99tKlg2eavVbzwdMxgOf61qj23+C38oRfT9S7yAurKw4uk38Arvj54gJ4diOc7XAAJJWI5WZpjkH+GVD4=</t>
   </si>
   <si>
     <t>QRs/certificate_Ilya_Svetaylo_QR_codecreate.svg</t>
@@ -571,7 +607,7 @@
     <t>943b36a0328f032a914c85d57f33994bc8c715c5487b130d26735083dd90a6da</t>
   </si>
   <si>
-    <t>GxJO7BiH7QSDOkaVyvoSs5I1l55gYnvxDt/EcTkBYowbQfUWr79pfg8SvoSGPtFFIAT16R5D3C2UWedyHqjSaq8</t>
+    <t>GxJO7BiH7QSDOkaVyvoSs5I1l55gYnvxDt/EcTkBYowbQfUWr79pfg8SvoSGPtFFIAT16R5D3C2UWedyHqjSaq8=</t>
   </si>
   <si>
     <t>QRs/certificate_Dmytro_Mandych_QR_codecreate.svg</t>
@@ -592,7 +628,7 @@
     <t>23f87cb21822a2962255c7e3ee4fd685d12eebfded0ef52cc0fc45284e2391fa</t>
   </si>
   <si>
-    <t>HBzaIo/6pGkl+lxuK93TpLDR3J0fQnJuLF/UvSWu/DnCBGypnDxHHN+9YQPv6mCzEqy4c4ztULeBbX6umqneJbM</t>
+    <t>HBzaIo/6pGkl+lxuK93TpLDR3J0fQnJuLF/UvSWu/DnCBGypnDxHHN+9YQPv6mCzEqy4c4ztULeBbX6umqneJbM=</t>
   </si>
   <si>
     <t>QRs/certificate_Petr_Murzin_QR_codecreate.svg</t>
@@ -610,7 +646,7 @@
     <t>26424cdcb5734d68da42acf4f4fefc781a9f3cee7afb46169f0ba75d0c27b2c6</t>
   </si>
   <si>
-    <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo</t>
+    <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo=</t>
   </si>
   <si>
     <t>QRs/certificate_Lovkin_Ivan_QR_codecreate.svg</t>
@@ -628,7 +664,7 @@
     <t>8dd5355ff30fcc74f42b09a276bf3f8c4bfadb9074adff5d3661f186029628c5</t>
   </si>
   <si>
-    <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA</t>
+    <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA=</t>
   </si>
   <si>
     <t>QRs/certificate_Nikita_Moskovkin_QR_codecreate.svg</t>
@@ -646,7 +682,7 @@
     <t>1440b21023e22e1aa226b951d4bddd6951d7f678c70d90df0f2d3166572f4476</t>
   </si>
   <si>
-    <t>Gzw/HIBgJ7KVFS7QmDgYWxq8XjKW4lAILc3sROoFzfxqWvK4tYRyGDb0ZvJKQe3xHaFC2CUeutLZSOTbfTa0QV0</t>
+    <t>Gzw/HIBgJ7KVFS7QmDgYWxq8XjKW4lAILc3sROoFzfxqWvK4tYRyGDb0ZvJKQe3xHaFC2CUeutLZSOTbfTa0QV0=</t>
   </si>
   <si>
     <t>QRs/certificate_Valeriy_Gello_QR_codecreate.svg</t>
@@ -664,7 +700,7 @@
     <t>7dfdd6abd5c883c7c876202d91386257e48337f55209b774f35d4eea4efe5df4</t>
   </si>
   <si>
-    <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0</t>
+    <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0=</t>
   </si>
   <si>
     <t>QRs/certificate_Elizabeth_Gurieva_QR_codecreate.svg</t>
@@ -682,7 +718,7 @@
     <t>7921fd5f449056d108afb44063ae6b555f02096707b1f175758ae2a385deab0a</t>
   </si>
   <si>
-    <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q</t>
+    <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q=</t>
   </si>
   <si>
     <t>QRs/certificate_Alexander_Zhovnuvaty_QR_codecreate.svg</t>
@@ -697,7 +733,7 @@
     <t>7368eab2f4fa6157cb3f67d39e8526bc1b91a852be6a70cddcbb6067c8b400f5</t>
   </si>
   <si>
-    <t>HJJvBuSIMkoiAO+sC8QBznqFcgY8LSD1Gw6CvtwJSVJLYoihwr5NrQvIzV7l2SoU5cbCU+FRL/3euoLPhxfQyYM</t>
+    <t>HJJvBuSIMkoiAO+sC8QBznqFcgY8LSD1Gw6CvtwJSVJLYoihwr5NrQvIzV7l2SoU5cbCU+FRL/3euoLPhxfQyYM=</t>
   </si>
   <si>
     <t>QRs/certificate_Nikolay_Scherbakov_QR_codecreate.svg</t>
@@ -715,7 +751,7 @@
     <t>b5533ac43186975dee86b708503330e9a34208986f3ee7e765f95605a009fe15</t>
   </si>
   <si>
-    <t>G4fHhUf678fe0keVwns3h0B7eDLW0jQOMkxJVRg9DwgKNOIjAgksa+fZ5mJ9Ojst1bHp2zGQfgVdtVILW+ZLpzY</t>
+    <t>G4fHhUf678fe0keVwns3h0B7eDLW0jQOMkxJVRg9DwgKNOIjAgksa+fZ5mJ9Ojst1bHp2zGQfgVdtVILW+ZLpzY=</t>
   </si>
   <si>
     <t>QRs/certificate_Anonymous_QR_codecreate.svg</t>
@@ -733,7 +769,7 @@
     <t>95aa9e48e404a67e4d4b8f9b55233fc6d35bfea9c1d76e1817de538a1449de3c</t>
   </si>
   <si>
-    <t>HJvnMx8PPHp3/yBmcUPMH2FdjkOgbClzrn20BArlYjAnHxJJGArQJBD8smNoDbg1RsQNwFIkn+lLuOShvvcLCPY</t>
+    <t>HJvnMx8PPHp3/yBmcUPMH2FdjkOgbClzrn20BArlYjAnHxJJGArQJBD8smNoDbg1RsQNwFIkn+lLuOShvvcLCPY=</t>
   </si>
   <si>
     <t>QRs/certificate_Aleksandr_Khomutov_QR_codecreate.svg</t>
@@ -754,7 +790,7 @@
     <t>c945a6a47e8cac4e234f6e7d94fbc0aa49797ca87328bf005829d8395ec1d935</t>
   </si>
   <si>
-    <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8</t>
+    <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8=</t>
   </si>
   <si>
     <t>QRs/certificate_Tetiana_Diachuk_QR_codecreate.svg</t>
@@ -769,7 +805,7 @@
     <t>512d5c0fea82c5ba910626db3fc8b06691849e6264df69982eb0fbf727f01282</t>
   </si>
   <si>
-    <t>HK7waE27kA6KJwApBM+T4LAk4aZqaE9IPDkBCxSy2kIEIufgsqcxvQ2rz19wEhtVeFadLyIdaeqHRdUIesIFeEY</t>
+    <t>HK7waE27kA6KJwApBM+T4LAk4aZqaE9IPDkBCxSy2kIEIufgsqcxvQ2rz19wEhtVeFadLyIdaeqHRdUIesIFeEY=</t>
   </si>
   <si>
     <t>QRs/certificate_Yatskiv_Vasyl_QR_codecreate.svg</t>
@@ -787,7 +823,7 @@
     <t>c94b544cf914bfa7a011309c6f2319b9dbf082adda773aca1e6f9d382e6508cb</t>
   </si>
   <si>
-    <t>HA5BwNFM/ySsemkCY6OpyYzGN2ynKMEaM8GLSihU2F8fIafDwOkoIh2PLwj1IdJ/pBYdBTic+Uho+017ECKjRNw</t>
+    <t>HA5BwNFM/ySsemkCY6OpyYzGN2ynKMEaM8GLSihU2F8fIafDwOkoIh2PLwj1IdJ/pBYdBTic+Uho+017ECKjRNw=</t>
   </si>
   <si>
     <t>QRs/certificate_Viktoriia_Kovalenko_QR_codecreate.svg</t>
@@ -802,7 +838,7 @@
     <t>62214459b916ac069b15c9a6459453dd725b5024ac74a6acd87c3fb231fab9eb</t>
   </si>
   <si>
-    <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs</t>
+    <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs=</t>
   </si>
   <si>
     <t>QRs/certificate_Artem_Lytvynov_QR_codecreate.svg</t>
@@ -817,7 +853,7 @@
     <t>321d5bc0b6acda5a08dbd6e3b151c27d1951c01e36b674970fe5bb02a33d5d2e</t>
   </si>
   <si>
-    <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE</t>
+    <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE=</t>
   </si>
   <si>
     <t>QRs/certificate_Taras_Horun_QR_codecreate.svg</t>
@@ -832,7 +868,7 @@
     <t>5d71857f9a99d5d85ed72ef0ca47733ca8ac77db65e29d25321b4506b0a64067</t>
   </si>
   <si>
-    <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I</t>
+    <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I=</t>
   </si>
   <si>
     <t>QRs/certificate_Anastasiia_Slota_QR_codecreate.svg</t>
@@ -847,7 +883,7 @@
     <t>4b973cdc099c10811c1bd7a72db69fcb3b65841f170b031104308bf9a63c8f3a</t>
   </si>
   <si>
-    <t>HLFj51cOIDt1qrqje2PXKxrtUxp1hjlrNJxyE2uD8TbiO2UKvbAI+WmR/rmJ3zP1nURKyFD3zP7orsfABAqigkg</t>
+    <t>HLFj51cOIDt1qrqje2PXKxrtUxp1hjlrNJxyE2uD8TbiO2UKvbAI+WmR/rmJ3zP1nURKyFD3zP7orsfABAqigkg=</t>
   </si>
   <si>
     <t>QRs/certificate_Yuriy_Melnychuk_QR_codecreate.svg</t>
@@ -862,7 +898,7 @@
     <t>e9bf9426eb214a6e36c83520cbd22f2b58d44e518597ce9887c5c65d029ed683</t>
   </si>
   <si>
-    <t>HLRD02/6NJ7khwmd96Pm2n54FdjUOODqTq0B65DPCuq8DMRfhgsgzJhWRLUNGmka6qsOAlRYHVYcaFdURPX1T8I</t>
+    <t>HLRD02/6NJ7khwmd96Pm2n54FdjUOODqTq0B65DPCuq8DMRfhgsgzJhWRLUNGmka6qsOAlRYHVYcaFdURPX1T8I=</t>
   </si>
   <si>
     <t>QRs/certificate_Vladyslav_Mazur_QR_codecreate.svg</t>
@@ -877,7 +913,7 @@
     <t>33571c3c57728ede717b2bf46df346305cbeca3e966b76cf15369f7411ddabef</t>
   </si>
   <si>
-    <t>G23T8nDlJs73D0lrECwkUe+mXYAtGdG9qjpSpWrU32pvXnfTe3DSqjCTi6rJFVs1Yzi2Fv3xylxp5MMR8p8VeRw</t>
+    <t>G23T8nDlJs73D0lrECwkUe+mXYAtGdG9qjpSpWrU32pvXnfTe3DSqjCTi6rJFVs1Yzi2Fv3xylxp5MMR8p8VeRw=</t>
   </si>
   <si>
     <t>QRs/certificate_Hanna_Zhurba_QR_codecreate.svg</t>
@@ -892,7 +928,7 @@
     <t>96250fd24ef42b3b059c7f85867ca063298d0784f07d7b3d4a19da04dbf6f4c7</t>
   </si>
   <si>
-    <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y</t>
+    <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y=</t>
   </si>
   <si>
     <t>QRs/certificate_Viktoriia_Holoshchapova_QR_codecreate.svg</t>
@@ -907,7 +943,7 @@
     <t>638039974f462d2a16fa4959a86c265addbc78b4b6d26dddbcf4a9d2b69ae9d7</t>
   </si>
   <si>
-    <t>HOt76U1Fm6QnHoInt0Smt+gAS3rWPhQyfPREvrRvrghaKyti2vcVHkLzN6+M0BSZWjdpmAEmApjrFE22eEaMtqg</t>
+    <t>HOt76U1Fm6QnHoInt0Smt+gAS3rWPhQyfPREvrRvrghaKyti2vcVHkLzN6+M0BSZWjdpmAEmApjrFE22eEaMtqg=</t>
   </si>
   <si>
     <t>QRs/certificate_Nikita_Liashko_QR_codecreate.svg</t>
@@ -925,7 +961,7 @@
     <t>be6bd83b629a3c1a2c21d715530d5d9756957a2937927e5005509791d9516ad4</t>
   </si>
   <si>
-    <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI</t>
+    <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksandr_Ishchuk_QR_codecreate.svg</t>
@@ -943,7 +979,7 @@
     <t>ee2ce473b4ba491666e6ca04e86e9f003e61c6e546fdfdc48d0cbd5cd737b63b</t>
   </si>
   <si>
-    <t>G5FFAmf/zMSc5uhA4w2of3MlPRCOl/nrSQ+EHORntQdSYge5OoFzcoywcRu+c8Al2Wn0vDT2gplOysnc9bkVKuU</t>
+    <t>G5FFAmf/zMSc5uhA4w2of3MlPRCOl/nrSQ+EHORntQdSYge5OoFzcoywcRu+c8Al2Wn0vDT2gplOysnc9bkVKuU=</t>
   </si>
   <si>
     <t>QRs/certificate_Sofiia_Zharkikh_QR_codecreate.svg</t>
@@ -958,7 +994,7 @@
     <t>bde11c3468f03baaa52b69b1d0037713d6e1656efbe22bbe443616867c8ce1d1</t>
   </si>
   <si>
-    <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo</t>
+    <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo=</t>
   </si>
   <si>
     <t>QRs/certificate_Ruslan_Ovsiienko_QR_codecreate.svg</t>
@@ -976,7 +1012,7 @@
     <t>a6fcc6053dca297895929eb99e1c5830d725382f51839482bc26c30a092bb046</t>
   </si>
   <si>
-    <t>HPxkFc6eqX1zkacNhXG+sBNXjVxyuH1KHnrh6B9b6e9zKf6E3ZsKgi7KviRGqMsROOkCltpUiNYA5H0saLu0V90</t>
+    <t>HPxkFc6eqX1zkacNhXG+sBNXjVxyuH1KHnrh6B9b6e9zKf6E3ZsKgi7KviRGqMsROOkCltpUiNYA5H0saLu0V90=</t>
   </si>
   <si>
     <t>QRs/certificate_Andrii_Kolhatin_QR_codecreate.svg</t>
@@ -994,7 +1030,7 @@
     <t>c34ea7755dcd2c595bc8948e55bfad95a0790b3e11f37e6eeed3a4520efaace9</t>
   </si>
   <si>
-    <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8</t>
+    <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8=</t>
   </si>
   <si>
     <t>QRs/certificate_Volodymyr_Beimuk_QR_codecreate.svg</t>
@@ -1012,7 +1048,7 @@
     <t>f0b50ee7786302d430741a96d7a6fd3811814418556799f4440a4990e31ea32a</t>
   </si>
   <si>
-    <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw</t>
+    <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw=</t>
   </si>
   <si>
     <t>QRs/certificate_Nazarii_Savorona_QR_codecreate.svg</t>
@@ -1027,7 +1063,7 @@
     <t>6471e2162a55dbf5dd4d31bfe55b942b65d00f871d57a47269a6eeadc98f5368</t>
   </si>
   <si>
-    <t>HAcsbhV60MNVfxYYDPk95TsJ8K0vzClCraIHX3jcMxTUYWejpT1skkLDABMaWybvl4vDwSwhutHvP3VeuSN3hqQ</t>
+    <t>HAcsbhV60MNVfxYYDPk95TsJ8K0vzClCraIHX3jcMxTUYWejpT1skkLDABMaWybvl4vDwSwhutHvP3VeuSN3hqQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Anton_Balykov_QR_codecreate.svg</t>
@@ -1045,7 +1081,7 @@
     <t>d315e32b394432ee4f600848d18077b44f6d8fc23a87e742e44380401ac7bfb9</t>
   </si>
   <si>
-    <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ</t>
+    <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Rodion_Nazarov_QR_codecreate.svg</t>
@@ -1060,7 +1096,7 @@
     <t>9642ba4d9413419d673a1db147e44b6a8324c6dbfcc77823ab8e7f02503ec02e</t>
   </si>
   <si>
-    <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg</t>
+    <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg=</t>
   </si>
   <si>
     <t>QRs/certificate_Denis_Riabtsev_QR_codecreate.svg</t>
@@ -1078,7 +1114,7 @@
     <t>35a047ff48ee73cae02b98a664d79ed4beec0f2fc7ca444cf0e6fe6feba7072f</t>
   </si>
   <si>
-    <t>HFa8giAwmh7H5tdphmNqPT2w8NyaSL0zoQtw8vhcOO24OJF8JiXHbFSXbqsuWnvYikzoLh9en0UUOiDdQ/qu9iM</t>
+    <t>HFa8giAwmh7H5tdphmNqPT2w8NyaSL0zoQtw8vhcOO24OJF8JiXHbFSXbqsuWnvYikzoLh9en0UUOiDdQ/qu9iM=</t>
   </si>
   <si>
     <t>QRs/certificate_Ahadzhan_Piloian_QR_codecreate.svg</t>
@@ -1096,7 +1132,7 @@
     <t>b8a00c902b36299bb4367d5b489cfc74a877d6f2bb8f7e96b97ce8cf8266ac5f</t>
   </si>
   <si>
-    <t>HFDQ9yfu6U/EX1zGYWGMzuZllAhZ0Raovu7AG+Imc26Qa764AnS95/dSLQ7UQt9Go+rOAxw7mjemhwWS7bIocD8</t>
+    <t>HFDQ9yfu6U/EX1zGYWGMzuZllAhZ0Raovu7AG+Imc26Qa764AnS95/dSLQ7UQt9Go+rOAxw7mjemhwWS7bIocD8=</t>
   </si>
   <si>
     <t>QRs/certificate_Andrii_Tsemko_QR_codecreate.svg</t>
@@ -1111,7 +1147,7 @@
     <t>b12bfb82be4529b4d81cacdd470c11fe9b435283892c3c1bc60cdb76a5563a9b</t>
   </si>
   <si>
-    <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ</t>
+    <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleg_Chaika_QR_codecreate.svg</t>
@@ -1126,7 +1162,7 @@
     <t>8b0b4aebba75393ae3d3d17c2935872fcc9b742667912a33f84c93005de85fb4</t>
   </si>
   <si>
-    <t>G2xO7B4Q+hdYRxBzyQaDhdsQu08oTGo4BF52Bl9If0c4DJKDCtwS9qoZx5Lj/2WEX02RiGVb6G02slDylbdqLAo</t>
+    <t>G2xO7B4Q+hdYRxBzyQaDhdsQu08oTGo4BF52Bl9If0c4DJKDCtwS9qoZx5Lj/2WEX02RiGVb6G02slDylbdqLAo=</t>
   </si>
   <si>
     <t>QRs/certificate_Yehor_Podporinov_QR_codecreate.svg</t>
@@ -1141,7 +1177,7 @@
     <t>2bdefe6ab583294a8e3a46a7d66467c7afc535265a5eb5044d61411c2e9cf825</t>
   </si>
   <si>
-    <t>HM6uF51YbAt3DbFxvVNTpeS9X1oDpHw0zFnNxLs999PuJNc1azg1gITStdzGKi8OvKjdT95PGN9f/sRqjNlY+2o</t>
+    <t>HM6uF51YbAt3DbFxvVNTpeS9X1oDpHw0zFnNxLs999PuJNc1azg1gITStdzGKi8OvKjdT95PGN9f/sRqjNlY+2o=</t>
   </si>
   <si>
     <t>QRs/certificate_Artem_Litkevych_QR_codecreate.svg</t>
@@ -1159,7 +1195,7 @@
     <t>983a3391641e6d41e716f9b8dfa7b3569f06e81569f93cc6a53f843606ba57cb</t>
   </si>
   <si>
-    <t>HOknl3bfOj6VWiF2cke75fBKUEhoJiAdgJIjzXMYR+mPe0Kx1XuF8nIHN+9jrnsbzNkPdUhb6jHrVKXTbhV8Q9w</t>
+    <t>HOknl3bfOj6VWiF2cke75fBKUEhoJiAdgJIjzXMYR+mPe0Kx1XuF8nIHN+9jrnsbzNkPdUhb6jHrVKXTbhV8Q9w=</t>
   </si>
   <si>
     <t>QRs/certificate_Vadim_Mokropulo_QR_codecreate.svg</t>
@@ -1174,7 +1210,7 @@
     <t>c5f89ffab6fb6790398f25f04cceea2582045f2cdaa852cffa609587b5f97da2</t>
   </si>
   <si>
-    <t>HCM9Lxm2HfN4TKyTb1Hswsn5VJpsxgiJW5R+SepjJ0UeRlgsboEmN4/JokRrXfcmW+0+luqqgSqpIF/cWkAGIW0</t>
+    <t>HCM9Lxm2HfN4TKyTb1Hswsn5VJpsxgiJW5R+SepjJ0UeRlgsboEmN4/JokRrXfcmW+0+luqqgSqpIF/cWkAGIW0=</t>
   </si>
   <si>
     <t>QRs/certificate_Arsenii_Trybukh_QR_codecreate.svg</t>
@@ -1192,7 +1228,7 @@
     <t>2a0049e182ee0f576b0e11aacf2ecbd5696d47a6488c9b172e818e655db93b43</t>
   </si>
   <si>
-    <t>G9Ch3H0JSIgK0D8+lUc+CVe5hh1/Qcz5M53LYvCPLGRtXm995jnkm8PhJ41ACFNTYNjNI1J86FZYJvp+vqILR7Y</t>
+    <t>G9Ch3H0JSIgK0D8+lUc+CVe5hh1/Qcz5M53LYvCPLGRtXm995jnkm8PhJ41ACFNTYNjNI1J86FZYJvp+vqILR7Y=</t>
   </si>
   <si>
     <t>QRs/certificate_Khrystyna_Vysotska_QR_codecreate.svg</t>
@@ -1207,7 +1243,7 @@
     <t>de78c058c82cb70d7785272b03e0faaf9d22a8b0e83bf3c62e1088ba65fe154a</t>
   </si>
   <si>
-    <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8</t>
+    <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8=</t>
   </si>
   <si>
     <t>QRs/certificate_Mykhailo_Shcholkin_QR_codecreate.svg</t>
@@ -1222,7 +1258,7 @@
     <t>7a6968aff4e08534424f50abe38fe90818e9d3c97ce0c9801dda20f222a23e67</t>
   </si>
   <si>
-    <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk</t>
+    <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk=</t>
   </si>
   <si>
     <t>QRs/certificate_Sofiia_Kireieva_QR_codecreate.svg</t>
@@ -1240,7 +1276,7 @@
     <t>4f789ed064df7a17fb165d92a4775577ae2b2aa0933828e2184f467078a0f4e1</t>
   </si>
   <si>
-    <t>G2jP4FhVjFgaeIXACmuv4NrkTHbT4Pw2fsgVYqydLjTHTp2bFOhYi9tu99P7C6MSdtXuYAkVEk7jPkH9tPRKMPw</t>
+    <t>G2jP4FhVjFgaeIXACmuv4NrkTHbT4Pw2fsgVYqydLjTHTp2bFOhYi9tu99P7C6MSdtXuYAkVEk7jPkH9tPRKMPw=</t>
   </si>
   <si>
     <t>QRs/certificate_Alena_Sporova_QR_codecreate.svg</t>
@@ -1255,7 +1291,7 @@
     <t>483060d6ed3048a8dc0131f806543e2d4ebf5438280c29af23b478769c5e2422</t>
   </si>
   <si>
-    <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk</t>
+    <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk=</t>
   </si>
   <si>
     <t>QRs/certificate_Nikita_Masych_QR_codecreate.svg</t>
@@ -1270,7 +1306,7 @@
     <t>c4879efd2b227fc0a0e38b82a1a91f47d5c53312805a02084f9769bbec1a71ec</t>
   </si>
   <si>
-    <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo</t>
+    <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo=</t>
   </si>
   <si>
     <t>QRs/certificate_Mark_Cherepovskyi_QR_codecreate.svg</t>
@@ -1285,7 +1321,7 @@
     <t>805b929698577e9aca3fe4691eadeb51f4dc001d6c3c48625b4e2d7ff2f1f090</t>
   </si>
   <si>
-    <t>HKpxDnYpWxDgjde7+Guu3BfglyLZHn8CSIxTn17IwxPuUfGHQDEVqrFM0MeyEBNAyZpkhKd/xI6fLRrcmAVWSDY</t>
+    <t>HKpxDnYpWxDgjde7+Guu3BfglyLZHn8CSIxTn17IwxPuUfGHQDEVqrFM0MeyEBNAyZpkhKd/xI6fLRrcmAVWSDY=</t>
   </si>
   <si>
     <t>QRs/certificate_Viacheslav_Horbanov_QR_codecreate.svg</t>
@@ -1303,7 +1339,7 @@
     <t>07d47b1d6f505d26390f6509ce90ce7d29c1aa36f0414b2fbb06512534698738</t>
   </si>
   <si>
-    <t>HHQI2fVR8mK2cT2CKboOJcWp2QYPiQNiw9VPCxmosNu9XigtlaKhIcX6aeB7MeRagImuPo4PKFwP3lV41PaiRWM</t>
+    <t>HHQI2fVR8mK2cT2CKboOJcWp2QYPiQNiw9VPCxmosNu9XigtlaKhIcX6aeB7MeRagImuPo4PKFwP3lV41PaiRWM=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksii_Stepaniuk_QR_codecreate.svg</t>
@@ -1318,7 +1354,7 @@
     <t>6631cf2481552d016ebf6f0543a598ba997aef5974bf5213a3e22979da49c8dd</t>
   </si>
   <si>
-    <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM</t>
+    <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM=</t>
   </si>
   <si>
     <t>QRs/certificate_Kyrylo_Riabov_QR_codecreate.svg</t>
@@ -1333,7 +1369,7 @@
     <t>a4bc9b1320f2e1e710e9b1fd60261ccf698609aee22bab0b8bc8f6278c77ff28</t>
   </si>
   <si>
-    <t>G4lD8X41oRFy7CW2bmIknZKml/cSa36IX+BQ6GED5YydUXmGRs4WyhEEQrk67wJ4e1gzQZpb86PNONSIkqmbihc</t>
+    <t>G4lD8X41oRFy7CW2bmIknZKml/cSa36IX+BQ6GED5YydUXmGRs4WyhEEQrk67wJ4e1gzQZpb86PNONSIkqmbihc=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksandr_Kolesnyk_QR_codecreate.svg</t>
@@ -1351,7 +1387,7 @@
     <t>4b7f8d4f293f72815ab490bd586e210947057de3a2e9afb59fe92108421cfc43</t>
   </si>
   <si>
-    <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88</t>
+    <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88=</t>
   </si>
   <si>
     <t>QRs/certificate_Nikita_Chabaniuk_QR_codecreate.svg</t>
@@ -1366,7 +1402,7 @@
     <t>eb8c7fe60daa7572aee9a1d690a27e8d815816406e655f8b82e265d0f9fe1c62</t>
   </si>
   <si>
-    <t>G9g/25PmJHzczdwBSSy0Zypc9ZTw+/+YXHbvvw/DHm/9W+MgQkve2zHsaohfLfd1pXPsRJ+laHxZzzZgleauDAs</t>
+    <t>G9g/25PmJHzczdwBSSy0Zypc9ZTw+/+YXHbvvw/DHm/9W+MgQkve2zHsaohfLfd1pXPsRJ+laHxZzzZgleauDAs=</t>
   </si>
   <si>
     <t>QRs/certificate_Amina_Yambulatova_QR_codecreate.svg</t>
@@ -1381,7 +1417,7 @@
     <t>40f94f67b8a8d87da643ad5c019db2e6c6f6e960a03453048995c11eea36d236</t>
   </si>
   <si>
-    <t>HGwq4A8p8OWC5Gh+teNqjrwCzbrT0mWdm2OuDoYtB3s1HgthxjnTOjy9hI+EerJD42qx4NTjmyKAB9cpY84rOKg</t>
+    <t>HGwq4A8p8OWC5Gh+teNqjrwCzbrT0mWdm2OuDoYtB3s1HgthxjnTOjy9hI+EerJD42qx4NTjmyKAB9cpY84rOKg=</t>
   </si>
   <si>
     <t>QRs/certificate_Yegor_Chukanov_QR_codecreate.svg</t>
@@ -1399,7 +1435,7 @@
     <t>1ead312a6aebd3ebf09cc7e8f8b0601d302984d473d045fc69a131f98f2a2eb4</t>
   </si>
   <si>
-    <t>G1juo7SBQZageFwRNPEys5X51AkNFvYuzGZjEuZEEItYJwfD03FjUeOtDPlRHnYj8rBLuAf/gCVBc2g1fV3w4wY</t>
+    <t>G1juo7SBQZageFwRNPEys5X51AkNFvYuzGZjEuZEEItYJwfD03FjUeOtDPlRHnYj8rBLuAf/gCVBc2g1fV3w4wY=</t>
   </si>
   <si>
     <t>QRs/certificate_Dmytro_Vynohradov_QR_codecreate.svg</t>
@@ -1414,7 +1450,7 @@
     <t>a7acdf8ffeb25acb9d16d5598cc597957e1ab30b0804ff98d80c127612539234</t>
   </si>
   <si>
-    <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk</t>
+    <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk=</t>
   </si>
   <si>
     <t>QRs/certificate_Mykhailo_Sokolov_QR_codecreate.svg</t>
@@ -1432,7 +1468,7 @@
     <t>5cbc5e19fd5bb7d530d8e96ecd9e1f957e8731f7b5738c30b4b5e1bdda0861c4</t>
   </si>
   <si>
-    <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo</t>
+    <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo=</t>
   </si>
   <si>
     <t>QRs/certificate_Illia_Popov_QR_codecreate.svg</t>
@@ -1450,7 +1486,7 @@
     <t>792e88d6cc7d73abfb39b8207c36a4033126159e3a43f548b4dfbb93ca89e57a</t>
   </si>
   <si>
-    <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY</t>
+    <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY=</t>
   </si>
   <si>
     <t>QRs/certificate_Mykola_Gora_QR_codecreate.svg</t>
@@ -1465,7 +1501,7 @@
     <t>417f8fbf445be4909b812ed5db8ded8669b512bcba91782881d11f10fe551570</t>
   </si>
   <si>
-    <t>G8ah5f2UjwoYEixl7OZKZrVAizGnQBy+lwuL+ammNcBqEjR8riRwunMmhjuzXKnQ8orFQJXmZhMvaCtDzItFhnw</t>
+    <t>G8ah5f2UjwoYEixl7OZKZrVAizGnQBy+lwuL+ammNcBqEjR8riRwunMmhjuzXKnQ8orFQJXmZhMvaCtDzItFhnw=</t>
   </si>
   <si>
     <t>QRs/certificate_Artem_Levkin_QR_codecreate.svg</t>
@@ -1483,7 +1519,7 @@
     <t>34ea29020672eb21280caadaf19377833ae12495cae3cc9e297d0f4aefe0d428</t>
   </si>
   <si>
-    <t>G0ZjvUb5sgyD719aQ7ygiXigPsrGpMAmw0TdIjX2xBb4BuYLIXwlOY1LYnd5sdVo6jKKXK6g1s4UIJKuU8RPHew</t>
+    <t>G0ZjvUb5sgyD719aQ7ygiXigPsrGpMAmw0TdIjX2xBb4BuYLIXwlOY1LYnd5sdVo6jKKXK6g1s4UIJKuU8RPHew=</t>
   </si>
   <si>
     <t>QRs/certificate_Natalya_Dolgova_QR_codecreate.svg</t>
@@ -1498,7 +1534,7 @@
     <t>bfdf2d5236562eef75432a510ff9b0b4cd7d37ac17547d3e0515f4891a736609</t>
   </si>
   <si>
-    <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc</t>
+    <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc=</t>
   </si>
   <si>
     <t>QRs/certificate_Artem_Zubrych_QR_codecreate.svg</t>
@@ -1516,7 +1552,7 @@
     <t>f4b8579fd5eced5139aaa8d33a02cf89c8470d7247579eb41ff24b9b6b96cfeb</t>
   </si>
   <si>
-    <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E</t>
+    <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E=</t>
   </si>
   <si>
     <t>QRs/certificate_Valentyna_Lytvynova_QR_codecreate.svg</t>
@@ -1531,7 +1567,7 @@
     <t>ff01796886d91f5df69e2b999462ffdd868ad8a8ac105910698d4bf34eac760d</t>
   </si>
   <si>
-    <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q</t>
+    <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q=</t>
   </si>
   <si>
     <t>QRs/certificate_Eugene_Petrikeev_QR_codecreate.svg</t>
@@ -1546,7 +1582,7 @@
     <t>f58f1fc15134ceb6667235bc35ca8e2bc62cf070e2a991a17d739ee3d744ec0a</t>
   </si>
   <si>
-    <t>G7odIa2nR2CTXihZ272zal5AhXr13DqLqqyxkYgyuEN7cLxIlWKECJnfXCeXzPqGH8fBfl9v7DunBuqlObCkULE</t>
+    <t>G7odIa2nR2CTXihZ272zal5AhXr13DqLqqyxkYgyuEN7cLxIlWKECJnfXCeXzPqGH8fBfl9v7DunBuqlObCkULE=</t>
   </si>
   <si>
     <t>QRs/certificate_Yurii_Poberezhnyi_QR_codecreate.svg</t>
@@ -1564,7 +1600,7 @@
     <t>29e5562b40059d121058153eeba3fe1d345bec9c8d96be032b882c076e5a7576</t>
   </si>
   <si>
-    <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw</t>
+    <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw=</t>
   </si>
   <si>
     <t>QRs/certificate_Alina_Telnova_QR_codecreate.svg</t>
@@ -1585,7 +1621,7 @@
     <t>af27ce942975c91a06dbe4593ddf563b104b6cff511a916a18e473e33a3c6685</t>
   </si>
   <si>
-    <t>Gxb5qLCO2gOVk0XmAl5V0xEK4mWcrjqA5qw51GpsOz7mIajkq6+QkZj9qyqPbzcd2vRlji2whyQPpa58B92Jpw4</t>
+    <t>Gxb5qLCO2gOVk0XmAl5V0xEK4mWcrjqA5qw51GpsOz7mIajkq6+QkZj9qyqPbzcd2vRlji2whyQPpa58B92Jpw4=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksandra_Ivanova_QR_codecreate.svg</t>
@@ -1603,7 +1639,7 @@
     <t>9477c5582b2ff96dc62b23bcada20adbb2ae378c3d0e8e41252c1b686cbc2829</t>
   </si>
   <si>
-    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s</t>
+    <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
     <t>QRs/certificate_Ilona_Shevchenko_QR_codecreate.svg</t>
@@ -1618,7 +1654,7 @@
     <t>53a0b93122b1b19f00b1770fcf8346ff6b499f4d7d038539404febdb403dd2d5</t>
   </si>
   <si>
-    <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ</t>
+    <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
     <t>QRs/certificate_Ievgeniia_Bondar_QR_codecreate.svg</t>
@@ -1633,7 +1669,7 @@
     <t>7175c0e9b3bfed99d34b5ff6205db6a1d738a6f59b1edc16625a3de5e5df2337</t>
   </si>
   <si>
-    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo</t>
+    <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
     <t>QRs/certificate_Sofia_Golets_QR_codecreate.svg</t>
@@ -1648,7 +1684,7 @@
     <t>d329fb86a98533895cc967dcae966e81c1704bd665227e866aa2243d40f860d1</t>
   </si>
   <si>
-    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA</t>
+    <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
     <t>QRs/certificate_Mykyta_Tsyvinskyi_QR_codecreate.svg</t>
@@ -1663,7 +1699,7 @@
     <t>9ed407f8685442130e50e263f64e11428a8cbfc8678be9b3a5e7358f709b6e8c</t>
   </si>
   <si>
-    <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA</t>
+    <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
     <t>09.12.2022</t>
@@ -1675,7 +1711,7 @@
     <t>73728940f6f168a46120d32081278e9c30ab81815077aa212a721480bcebc441</t>
   </si>
   <si>
-    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM</t>
+    <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
     <t>Kateryna Hordiienko</t>
@@ -1687,7 +1723,7 @@
     <t>c2d70295e9cd94ea36fa993ddb5a6e20a0b88058287ff348b485f282fe98bcd7</t>
   </si>
   <si>
-    <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI</t>
+    <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
     <t>QRs/certificate_Kateryna_Hordiienko_QR_codecreate.svg</t>
@@ -1702,7 +1738,7 @@
     <t>a40518df0f2980ea97bff23df384799409d982c64201d81624c758e34a06e753</t>
   </si>
   <si>
-    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU</t>
+    <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
     <t>Yuliia Aritkulova</t>
@@ -1714,7 +1750,7 @@
     <t>dcc49868ac0482916b0fe63143198d93a159f912cae80d172fca6750a9b8223c</t>
   </si>
   <si>
-    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI</t>
+    <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
     <t>QRs/certificate_Yuliia_Aritkulova_QR_codecreate.svg</t>
@@ -1729,7 +1765,7 @@
     <t>69469e3a141e8845c7809e75806677b732754cb64a3ab7e27ee50c47defaa7cd</t>
   </si>
   <si>
-    <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY</t>
+    <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
     <t>QRs/certificate_Oleksandr_Yevtushenko_QR_codecreate.svg</t>
@@ -1744,7 +1780,7 @@
     <t>82294a3b62b68728cf69290a6f7d4bb8be81c94b7fdfad7941872391265921e7</t>
   </si>
   <si>
-    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U</t>
+    <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
     <t>QRs/certificate_Mariia_Mahdalina_QR_codecreate.svg</t>
@@ -1756,7 +1792,7 @@
     <t>766041da4e35a4d0486d569831f14d1b0170e9b3c0d5f3a1ad71da7b4dd65a40</t>
   </si>
   <si>
-    <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA</t>
+    <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
     <t>13.12.2022</t>
@@ -1771,7 +1807,7 @@
     <t>b8204a738e7d7870dabd55671aca3a860dd89a35ef26e0842f271747331a2137</t>
   </si>
   <si>
-    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc</t>
+    <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
     <t>QRs/certificate_Anastasia_Andreeva_QR_codecreate.svg</t>
@@ -1786,7 +1822,7 @@
     <t>008db7e828231c897d191b24f98e10e5b57e49db57e26299a53ccf366734cd28</t>
   </si>
   <si>
-    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE</t>
+    <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
     <t>QRs/certificate_Polina_Reshetnikova_QR_codecreate.svg</t>
@@ -1798,7 +1834,7 @@
     <t>93620030db08953cbf17468ffde46134834b7da10958b5174e935d4e324ce081</t>
   </si>
   <si>
-    <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0</t>
+    <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
     <t>b3240a1974bff838f353</t>
@@ -1807,7 +1843,7 @@
     <t>b3240a1974bff838f35320554f851b14ea2bd31f46bcb893a35546b7ea8b3112</t>
   </si>
   <si>
-    <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc</t>
+    <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
     <t>14.12.2022</t>
@@ -1819,7 +1855,7 @@
     <t>b94492feb30efb7f94082666a936891a31a43de0e18af1aa8a110ef869532d93</t>
   </si>
   <si>
-    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI</t>
+    <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
     <t>Pasha Charovatiy</t>
@@ -1831,7 +1867,7 @@
     <t>151f4183ce68ec59b82ccbef71ac6f538e0eb86354c29ded27bca54fa4b95c99</t>
   </si>
   <si>
-    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk</t>
+    <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
     <t>QRs/certificate_Pasha_Charovatiy_QR_codecreate.svg</t>
@@ -1846,7 +1882,7 @@
     <t>42bdd76bce3b85dabf4bdba92100db768bf64e72f2b3535930b69bef40aa3c4c</t>
   </si>
   <si>
-    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y</t>
+    <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
     <t>QRs/certificate_Dmytro_Serhiienko_QR_codecreate.svg</t>
@@ -1861,7 +1897,7 @@
     <t>890c4726435f6d5a1c10068273e8dd8a3ac0645a9564bbf149f0d74a891669c6</t>
   </si>
   <si>
-    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8</t>
+    <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
     <t>QRs/certificate_Vladislav_Dmitrenko_QR_codecreate.svg</t>
@@ -1876,7 +1912,7 @@
     <t>05f89d361327d9ef1679342cb8ed0488715da550cba8f0bdc7160caa43b5929c</t>
   </si>
   <si>
-    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74</t>
+    <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
     <t>QRs/certificate_Marina_Rindina_QR_codecreate.svg</t>
@@ -1894,7 +1930,7 @@
     <t>fec88d795aed9c59a04f91dedb06380fd764c753a54d6bdb96cea82b6ba05e29</t>
   </si>
   <si>
-    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0</t>
+    <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
   </si>
   <si>
     <t>QRs/certificate_Nazar_Franko_QR_codecreate.svg</t>
@@ -1909,7 +1945,7 @@
     <t>9b293cc55ae62c9db4d9ce36cbc12b07e861f9c2cc1fdea2619f10ceca7aa779</t>
   </si>
   <si>
-    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA</t>
+    <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
     <t>QRs/certificate_Olha_Drahomeretska_QR_codecreate.svg</t>
@@ -1924,7 +1960,7 @@
     <t>ac2b88ac92caf80b12076489c877b91785360487aa3135871883e597da139682</t>
   </si>
   <si>
-    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s</t>
+    <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
     <t>QRs/certificate_Maksym_Cherniak_QR_codecreate.svg</t>
@@ -1936,7 +1972,7 @@
     <t>3bf214d846d708bfad511d51d92350d45ba0bcf21f43b7bb46553ed2e0aad585</t>
   </si>
   <si>
-    <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk</t>
+    <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2286,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2312,16 +2348,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -2330,30 +2366,30 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -2362,30 +2398,30 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -2394,30 +2430,30 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2426,30 +2462,30 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2458,30 +2494,30 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2490,30 +2526,30 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2522,30 +2558,30 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2554,30 +2590,30 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -2586,30 +2622,30 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2618,30 +2654,30 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2650,30 +2686,30 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2682,30 +2718,30 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -2714,30 +2750,30 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -2746,30 +2782,30 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -2778,30 +2814,30 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -2810,30 +2846,30 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2842,30 +2878,30 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -2874,30 +2910,30 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -2906,30 +2942,30 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2938,30 +2974,30 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -2970,30 +3006,30 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -3002,30 +3038,30 @@
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -3034,27 +3070,27 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>138</v>
@@ -3080,13 +3116,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
         <v>142</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
@@ -3112,16 +3148,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -3130,30 +3166,30 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -3162,30 +3198,30 @@
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -3194,30 +3230,30 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -3226,30 +3262,30 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -3258,30 +3294,30 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -3290,30 +3326,30 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -3322,30 +3358,30 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -3354,27 +3390,27 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
         <v>190</v>
@@ -3400,45 +3436,45 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
         <v>194</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
         <v>195</v>
       </c>
-      <c r="C37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s">
         <v>196</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
         <v>197</v>
       </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>198</v>
-      </c>
-      <c r="J37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
         <v>200</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>201</v>
-      </c>
-      <c r="C38" t="s">
-        <v>189</v>
       </c>
       <c r="D38" t="s">
         <v>202</v>
@@ -3470,7 +3506,7 @@
         <v>207</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D39" t="s">
         <v>208</v>
@@ -3502,7 +3538,7 @@
         <v>213</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
         <v>214</v>
@@ -3534,7 +3570,7 @@
         <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
         <v>220</v>
@@ -3560,16 +3596,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -3578,30 +3614,30 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J42" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -3610,27 +3646,27 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
         <v>236</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
         <v>237</v>
@@ -3662,39 +3698,39 @@
         <v>242</v>
       </c>
       <c r="C45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" t="s">
         <v>243</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
         <v>244</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
         <v>245</v>
       </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>246</v>
-      </c>
-      <c r="J45" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B46" t="s">
         <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
         <v>249</v>
@@ -3726,10 +3762,10 @@
         <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -3738,16 +3774,16 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J47" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48">
@@ -3755,13 +3791,13 @@
         <v>253</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -3770,30 +3806,30 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -3802,30 +3838,30 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -3834,30 +3870,30 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -3866,30 +3902,30 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3898,30 +3934,30 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J52" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -3930,30 +3966,30 @@
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J53" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C54" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -3962,30 +3998,30 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J54" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D55" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -3994,30 +4030,30 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="J55" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -4026,30 +4062,30 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="J56" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B57" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -4058,27 +4094,27 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="J57" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
         <v>306</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
         <v>307</v>
@@ -4104,16 +4140,16 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -4122,30 +4158,30 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4154,27 +4190,27 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J60" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B61" t="s">
         <v>323</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
         <v>324</v>
@@ -4206,7 +4242,7 @@
         <v>329</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
         <v>330</v>
@@ -4232,16 +4268,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -4250,30 +4286,30 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -4282,30 +4318,30 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4314,30 +4350,30 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -4346,27 +4382,27 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J66" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B67" t="s">
         <v>357</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
         <v>358</v>
@@ -4392,16 +4428,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -4410,30 +4446,30 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D69" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -4442,30 +4478,30 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J69" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -4474,30 +4510,30 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J70" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -4506,30 +4542,30 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B72" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4538,30 +4574,30 @@
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J72" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D73" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4570,30 +4606,30 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J73" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B74" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D74" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -4602,30 +4638,30 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J74" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B75" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4634,30 +4670,30 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J75" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -4666,30 +4702,30 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J76" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B77" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -4698,30 +4734,30 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J77" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -4730,30 +4766,30 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J78" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B79" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D79" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -4762,30 +4798,30 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J79" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B80" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D80" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4794,30 +4830,30 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J80" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -4826,30 +4862,30 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D82" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -4858,30 +4894,30 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="J82" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D83" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -4890,30 +4926,30 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J83" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B84" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D84" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -4922,30 +4958,30 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B85" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -4954,30 +4990,30 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J85" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B86" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D86" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -4986,30 +5022,30 @@
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -5018,30 +5054,30 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B88" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5050,27 +5086,27 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J88" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B89" t="s">
         <v>475</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D89" t="s">
         <v>476</v>
@@ -5096,16 +5132,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C90" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D90" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -5114,30 +5150,30 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D91" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -5146,30 +5182,30 @@
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B92" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C92" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -5178,30 +5214,30 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J92" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B93" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C93" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D93" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -5210,30 +5246,30 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J93" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D94" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -5242,30 +5278,30 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J94" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B95" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D95" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5274,30 +5310,30 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J95" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B96" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D96" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -5306,94 +5342,94 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J96" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B97" t="s">
         <v>519</v>
       </c>
       <c r="C97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" t="s">
         <v>520</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
         <v>521</v>
       </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
         <v>522</v>
       </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>523</v>
-      </c>
-      <c r="J97" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>524</v>
+      </c>
+      <c r="B98" t="s">
         <v>525</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>532</v>
+      </c>
+      <c r="D98" t="s">
         <v>526</v>
       </c>
-      <c r="C98" t="s">
-        <v>520</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
         <v>527</v>
       </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
         <v>528</v>
       </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>529</v>
-      </c>
-      <c r="J98" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B99" t="s">
         <v>531</v>
       </c>
       <c r="C99" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D99" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -5402,30 +5438,30 @@
         <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J99" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B100" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C100" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D100" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -5434,30 +5470,30 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="J100" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B101" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C101" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D101" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -5466,30 +5502,30 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J101" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B102" t="s">
-        <v>463</v>
+        <v>548</v>
       </c>
       <c r="C102" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D102" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5498,30 +5534,30 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J102" t="s">
-        <v>467</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B103" t="s">
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="C103" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="D103" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -5530,30 +5566,30 @@
         <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J103" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="B104" t="s">
-        <v>554</v>
+        <v>475</v>
       </c>
       <c r="C104" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D104" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -5562,30 +5598,30 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="J104" t="s">
-        <v>558</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B105" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="C105" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D105" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -5594,30 +5630,30 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J105" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C106" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D106" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -5626,30 +5662,30 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J106" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B107" t="s">
-        <v>568</v>
+        <v>432</v>
       </c>
       <c r="C107" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D107" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -5658,30 +5694,30 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J107" t="s">
-        <v>572</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B108" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C108" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D108" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -5690,30 +5726,30 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J108" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="C109" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D109" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -5722,30 +5758,30 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="J109" t="s">
-        <v>371</v>
+        <v>584</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B110" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C110" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="D110" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -5754,30 +5790,30 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J110" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B111" t="s">
-        <v>587</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D111" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -5786,30 +5822,30 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J111" t="s">
-        <v>591</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B112" t="s">
-        <v>497</v>
+        <v>594</v>
       </c>
       <c r="C112" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D112" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -5818,30 +5854,30 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="J112" t="s">
-        <v>501</v>
+        <v>598</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B113" t="s">
-        <v>469</v>
+        <v>599</v>
       </c>
       <c r="C113" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D113" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -5850,30 +5886,30 @@
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="J113" t="s">
-        <v>473</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="C114" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="D114" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -5882,30 +5918,30 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="J114" t="s">
-        <v>371</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B115" t="s">
-        <v>602</v>
+        <v>481</v>
       </c>
       <c r="C115" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D115" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -5914,30 +5950,30 @@
         <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="J115" t="s">
-        <v>606</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B116" t="s">
-        <v>607</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D116" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -5946,30 +5982,30 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="J116" t="s">
-        <v>611</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B117" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C117" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D117" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -5978,30 +6014,30 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="J117" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B118" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C118" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D118" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -6010,30 +6046,30 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J118" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B119" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C119" t="s">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="D119" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -6042,30 +6078,30 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J119" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B120" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C120" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="D120" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -6074,30 +6110,30 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J120" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="B121" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C121" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D121" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -6106,30 +6142,30 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J121" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="B122" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C122" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="D122" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -6138,16 +6174,77 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J122" t="s">
-        <v>637</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>634</v>
+      </c>
+      <c r="B123" t="s">
+        <v>645</v>
+      </c>
+      <c r="C123" t="s">
+        <v>645</v>
+      </c>
+      <c r="D123" t="s">
+        <v>646</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>647</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>648</v>
+      </c>
+      <c r="J123" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>634</v>
+      </c>
+      <c r="B124" t="s">
+        <v>645</v>
+      </c>
+      <c r="D124" t="s">
+        <v>650</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>651</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>652</v>
+      </c>
+      <c r="J124" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -67,7 +67,7 @@
     <t>HDLO+6gqDKL6E1jY/yWe9Hplo2WEmku01/xcGjkY9NVTEr68XT2ZpqZF91a1D9JbnKkJg1UuljvPQDEfKRYAitM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Петро_Петрович_QR_codecreate.svg</t>
+    <t>certificate_Петро_Петрович_QR_codecreate.svg</t>
   </si>
   <si>
     <t>10.05.2016</t>
@@ -88,7 +88,7 @@
     <t>HL/S5ow1QPozfKwI1cDRfp+h8sLtxXuxGlTDhhX9Rk8OYiSML1LOd3RwysGcf0ZTK3oLyrYpOiW7SgN6uB2ZYGE=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nikita_Magda_QR_codecreate.svg</t>
+    <t>certificate_Nikita_Magda_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Нестеров Максим</t>
@@ -103,7 +103,7 @@
     <t>HLC5z4t8xC2YGKI5mLBpvDsQ3DOM3PbbILeTlOKwjBm4K0esTGfEknzQuCJ2yEB6ovYnuMtL+MmBHQck4r/Og7Q=</t>
   </si>
   <si>
-    <t>QRs/certificate_Нестеров_Максим_QR_codecreate.svg</t>
+    <t>certificate_Нестеров_Максим_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Alexey Shendrick</t>
@@ -118,7 +118,7 @@
     <t>G68tQOmxtEYSkwR0sAY0ML8dBFo2Wi5mIbiy/fK07in9KXs9kunnFY/GlAbA/kda8OlqjC0Lk97BBUjUuPnTpHk=</t>
   </si>
   <si>
-    <t>QRs/certificate_Alexey_Shendrick_QR_codecreate.svg</t>
+    <t>certificate_Alexey_Shendrick_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Anastasia Sapozhkova</t>
@@ -133,7 +133,7 @@
     <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4=</t>
   </si>
   <si>
-    <t>QRs/certificate_Anastasia_Sapozhkova_QR_codecreate.svg</t>
+    <t>certificate_Anastasia_Sapozhkova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Den Galkin</t>
@@ -148,7 +148,7 @@
     <t>GzNRug/B6l+rL3to9AZ/VXpmusTsWvucAR9DOc2FTvxrM93KfyaXy/tA1JNI2m3n6U6h0HTVd5LDJ42ktB0U0wI=</t>
   </si>
   <si>
-    <t>QRs/certificate_Den_Galkin_QR_codecreate.svg</t>
+    <t>certificate_Den_Galkin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Daniyil Yakovlev</t>
@@ -163,7 +163,7 @@
     <t>G/OqvWSw7yJjGNtQrDOgmqM+KDGFPtg2ik0kjJI3j4VcUnwk8Er+CGUs7gv6f0fzp9aYI8HWFOe1JYwKeX4iB9o=</t>
   </si>
   <si>
-    <t>QRs/certificate_Daniyil_Yakovlev_QR_codecreate.svg</t>
+    <t>certificate_Daniyil_Yakovlev_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Алексей Демидов</t>
@@ -178,7 +178,7 @@
     <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q=</t>
   </si>
   <si>
-    <t>QRs/certificate_Алексей_Демидов_QR_codecreate.svg</t>
+    <t>certificate_Алексей_Демидов_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Анатолий Дедов</t>
@@ -193,7 +193,7 @@
     <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Анатолий_Дедов_QR_codecreate.svg</t>
+    <t>certificate_Анатолий_Дедов_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Денис Руденко</t>
@@ -208,7 +208,7 @@
     <t>HOuQkxXy/PqMOZJFmEUoMQk95GdnTEdDxzlbCmyKlOZmDvKXPg/DKRRZ4kEEvI30D+swVXxp4x8eKy1TYChtps8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Денис_Руденко_QR_codecreate.svg</t>
+    <t>certificate_Денис_Руденко_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Illia Fariatiev</t>
@@ -223,7 +223,7 @@
     <t>G1RRBhBcOU6M8nvMrq1O5P7aq2wiUecvqkXw/SoQk+GOLYc0oML5nQiOMrDAiM90Q67nNRLBMjlL8RfqtQngLZ8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Illia_Fariatiev_QR_codecreate.svg</t>
+    <t>certificate_Illia_Fariatiev_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Костюк Александр</t>
@@ -238,7 +238,7 @@
     <t>G6l/nUfobqeYO+SaS/PyhLMSJWjouG2QrzL8m9JyLZPmdXpYmDUXWPL30/Vaz60KIPhLXWqj6JP2YoqtYXmpn9k=</t>
   </si>
   <si>
-    <t>QRs/certificate_Костюк_Александр_QR_codecreate.svg</t>
+    <t>certificate_Костюк_Александр_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Марина Боровая</t>
@@ -253,7 +253,7 @@
     <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Марина_Боровая_QR_codecreate.svg</t>
+    <t>certificate_Марина_Боровая_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Мордвинов Роман Игоревич</t>
@@ -268,7 +268,7 @@
     <t>G3+B366TAXptnN3HvQySms9KyzVyfDsYIXw3O8Lw3Q6DdbZU0hTkIcnc0CTYsgjyxaTjGqf+1uDrdEWWYpXgpc4=</t>
   </si>
   <si>
-    <t>QRs/certificate_Мордвинов_Роман_QR_codecreate.svg</t>
+    <t>certificate_Мордвинов_Роман_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Сергей Романько</t>
@@ -283,7 +283,7 @@
     <t>G4Jpj2CKvbUWopbxx+r1S4P4a00i1vVFiWxaDaid3qXMd+O3iUkAcnZLIXUHDkeeObPXvwnDyWfVdP81UEiVhN8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Сергей_Романько_QR_codecreate.svg</t>
+    <t>certificate_Сергей_Романько_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Синельников Александр</t>
@@ -298,7 +298,7 @@
     <t>G5UswIvpVEAXG7zWhMchCB6uvXSRacPk9rNvBDGtXpCjMRkXkOvyNsz3nz5I+OHrYByOypWdRVomNhRH7wBxt98=</t>
   </si>
   <si>
-    <t>QRs/certificate_Синельников_Александр_QR_codecreate.svg</t>
+    <t>certificate_Синельников_Александр_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Скрипник Александр</t>
@@ -313,7 +313,7 @@
     <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk=</t>
   </si>
   <si>
-    <t>QRs/certificate_Скрипник_Александр_QR_codecreate.svg</t>
+    <t>certificate_Скрипник_Александр_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Солонский Александр</t>
@@ -328,7 +328,7 @@
     <t>HJl2ppwA2A8OAdeoTUQgSeFpehYnbukxEkKsCk8a9B4cA67t4VuZQFywBceNl4+PyteA/KbcDlSe0tpcE0uy6KE=</t>
   </si>
   <si>
-    <t>QRs/certificate_Солонский_Александр_QR_codecreate.svg</t>
+    <t>certificate_Солонский_Александр_QR_codecreate.svg</t>
   </si>
   <si>
     <t>31.10.2016</t>
@@ -346,7 +346,7 @@
     <t>HNTazPdprjLP4Yf9ZgRIBFtjR6r25k2krvvvcDmOBhT6JfM8SxjU+De2Q5fzGm4VHpNMegOp06EnNohbpzpEMI4=</t>
   </si>
   <si>
-    <t>QRs/certificate_Anton_Zaporozhchenko_QR_codecreate.svg</t>
+    <t>certificate_Anton_Zaporozhchenko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Oleksiy Ponomorev</t>
@@ -361,7 +361,7 @@
     <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksiy_Ponomorev_QR_codecreate.svg</t>
+    <t>certificate_Oleksiy_Ponomorev_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Pavel Brilliant</t>
@@ -376,7 +376,7 @@
     <t>G0QqHpt8SIjtEhZqu8ZwIdhaXdZLvLGNQMQTrINPsoNmdYf0Yp9854j+mcSOrLJh/dpq6aGZergC2+OcIJmIy5I=</t>
   </si>
   <si>
-    <t>QRs/certificate_Pavel_Brilliant_QR_codecreate.svg</t>
+    <t>certificate_Pavel_Brilliant_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Volodymyr Kavetskyy</t>
@@ -391,7 +391,7 @@
     <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc=</t>
   </si>
   <si>
-    <t>QRs/certificate_Volodymyr_Kavetskyy_QR_codecreate.svg</t>
+    <t>certificate_Volodymyr_Kavetskyy_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Vladyslav Minakov</t>
@@ -406,7 +406,7 @@
     <t>G8QdtgHByifGkRpvkwoyqyHYBnvngvqGpsE0+OYg0l4/alH5hKrukluT0vymRI89FuPQaP5NZXhJw5qBqr/o2SQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Vladyslav_Minakov_QR_codecreate.svg</t>
+    <t>certificate_Vladyslav_Minakov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>03.03.2017</t>
@@ -424,7 +424,7 @@
     <t>HA2ozpf6FmCR9/D/F1XgLiiwPlUjJLoag15bW5+L4fQHD0Fzs7c7/2KGC/bsQG8Qb9PP7XBe0ZLiDxxYN1sfvlc=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yevheniia_Shchypeleva_QR_codecreate.svg</t>
+    <t>certificate_Yevheniia_Shchypeleva_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Kolhatin Andrii</t>
@@ -439,7 +439,7 @@
     <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Kolhatin_Andrii_QR_codecreate.svg</t>
+    <t>certificate_Kolhatin_Andrii_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Heorhii Kholodov</t>
@@ -454,7 +454,7 @@
     <t>G9GctEnd76pKgGDyI7+aE9V09Cbs9aumDPiqIQigvacdBmKIzpoQDCwHI7E+a/k9BOzv+g7d0xz+Gge0BLfJFfQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Heorhii_Kholodov_QR_codecreate.svg</t>
+    <t>certificate_Heorhii_Kholodov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>30.05.2018</t>
@@ -475,7 +475,7 @@
     <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0=</t>
   </si>
   <si>
-    <t>QRs/certificate_Aleksandr_Gnatyuk_QR_codecreate.svg</t>
+    <t>certificate_Aleksandr_Gnatyuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Aleksandr Kurbatov</t>
@@ -490,7 +490,7 @@
     <t>HEGH5/OOhT4reguIiiTH6APFTbnlV5C1KUyZ1pDo2cj6OGuhq/LbQm/JPTRM/O7tZRuIRfzN9JFsrrjCWCFPlk4=</t>
   </si>
   <si>
-    <t>QRs/certificate_Aleksandr_Kurbatov_QR_codecreate.svg</t>
+    <t>certificate_Aleksandr_Kurbatov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Aleksandr Ivanov</t>
@@ -505,7 +505,7 @@
     <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Aleksandr_Ivanov_QR_codecreate.svg</t>
+    <t>certificate_Aleksandr_Ivanov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Artyom Ahmetzyanov</t>
@@ -520,7 +520,7 @@
     <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E=</t>
   </si>
   <si>
-    <t>QRs/certificate_Artyom_Ahmetzyanov_QR_codecreate.svg</t>
+    <t>certificate_Artyom_Ahmetzyanov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Oleksii Khramov</t>
@@ -535,7 +535,7 @@
     <t>HBlAzPzVISCrhkXzo8GZ6W8Z84V6yqNwfy72EfWfgfhWCfoC3kzzdLh2hOyRRt8A/hleQIggp11lEkfjiBwU3FI=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksii_Khramov_QR_codecreate.svg</t>
+    <t>certificate_Oleksii_Khramov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Nodar Alyoshin</t>
@@ -550,7 +550,7 @@
     <t>HAt2BcTILIRTPMZAwC+3r/wauy6mFamx0lLEvPl8T8u8X9L6TNJ2cd8B6X1E3f2E4izbyj19WA5Tr9VyW1AY1Qg=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nodar_Alyoshin_QR_codecreate.svg</t>
+    <t>certificate_Nodar_Alyoshin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Marina Osadchuk</t>
@@ -565,7 +565,7 @@
     <t>G+SXoVDF+C1xZEypC8G1DkMNZU2K/YTniKoPmEOKvao7SAs1KY2p8RFoJlol9Hi5x+ZnLMocF64cXyB82fj4/co=</t>
   </si>
   <si>
-    <t>QRs/certificate_Marina_Osadchuk_QR_codecreate.svg</t>
+    <t>certificate_Marina_Osadchuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Konstantin Nechvolod</t>
@@ -580,7 +580,7 @@
     <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE=</t>
   </si>
   <si>
-    <t>QRs/certificate_Konstantin_Nechvolod_QR_codecreate.svg</t>
+    <t>certificate_Konstantin_Nechvolod_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Ilya Svetaylo</t>
@@ -595,7 +595,7 @@
     <t>HKkfJL99tKlg2eavVbzwdMxgOf61qj23+C38oRfT9S7yAurKw4uk38Arvj54gJ4diOc7XAAJJWI5WZpjkH+GVD4=</t>
   </si>
   <si>
-    <t>QRs/certificate_Ilya_Svetaylo_QR_codecreate.svg</t>
+    <t>certificate_Ilya_Svetaylo_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Dmytro Mandych</t>
@@ -610,7 +610,7 @@
     <t>GxJO7BiH7QSDOkaVyvoSs5I1l55gYnvxDt/EcTkBYowbQfUWr79pfg8SvoSGPtFFIAT16R5D3C2UWedyHqjSaq8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Dmytro_Mandych_QR_codecreate.svg</t>
+    <t>certificate_Dmytro_Mandych_QR_codecreate.svg</t>
   </si>
   <si>
     <t>26.05.2020</t>
@@ -631,7 +631,7 @@
     <t>HBzaIo/6pGkl+lxuK93TpLDR3J0fQnJuLF/UvSWu/DnCBGypnDxHHN+9YQPv6mCzEqy4c4ztULeBbX6umqneJbM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Petr_Murzin_QR_codecreate.svg</t>
+    <t>certificate_Petr_Murzin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>28.05.2020</t>
@@ -649,7 +649,7 @@
     <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Lovkin_Ivan_QR_codecreate.svg</t>
+    <t>certificate_Lovkin_Ivan_QR_codecreate.svg</t>
   </si>
   <si>
     <t>30.05.2020</t>
@@ -667,7 +667,7 @@
     <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nikita_Moskovkin_QR_codecreate.svg</t>
+    <t>certificate_Nikita_Moskovkin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>03.06.2020</t>
@@ -685,7 +685,7 @@
     <t>Gzw/HIBgJ7KVFS7QmDgYWxq8XjKW4lAILc3sROoFzfxqWvK4tYRyGDb0ZvJKQe3xHaFC2CUeutLZSOTbfTa0QV0=</t>
   </si>
   <si>
-    <t>QRs/certificate_Valeriy_Gello_QR_codecreate.svg</t>
+    <t>certificate_Valeriy_Gello_QR_codecreate.svg</t>
   </si>
   <si>
     <t>21.08.2020</t>
@@ -703,7 +703,7 @@
     <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0=</t>
   </si>
   <si>
-    <t>QRs/certificate_Elizabeth_Gurieva_QR_codecreate.svg</t>
+    <t>certificate_Elizabeth_Gurieva_QR_codecreate.svg</t>
   </si>
   <si>
     <t>15.09.2020</t>
@@ -721,7 +721,7 @@
     <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q=</t>
   </si>
   <si>
-    <t>QRs/certificate_Alexander_Zhovnuvaty_QR_codecreate.svg</t>
+    <t>certificate_Alexander_Zhovnuvaty_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Nikolay Scherbakov</t>
@@ -736,7 +736,7 @@
     <t>HJJvBuSIMkoiAO+sC8QBznqFcgY8LSD1Gw6CvtwJSVJLYoihwr5NrQvIzV7l2SoU5cbCU+FRL/3euoLPhxfQyYM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nikolay_Scherbakov_QR_codecreate.svg</t>
+    <t>certificate_Nikolay_Scherbakov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>16.09.2020</t>
@@ -754,7 +754,7 @@
     <t>G4fHhUf678fe0keVwns3h0B7eDLW0jQOMkxJVRg9DwgKNOIjAgksa+fZ5mJ9Ojst1bHp2zGQfgVdtVILW+ZLpzY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Anonymous_QR_codecreate.svg</t>
+    <t>certificate_Anonymous_QR_codecreate.svg</t>
   </si>
   <si>
     <t>17.09.2020</t>
@@ -772,7 +772,7 @@
     <t>HJvnMx8PPHp3/yBmcUPMH2FdjkOgbClzrn20BArlYjAnHxJJGArQJBD8smNoDbg1RsQNwFIkn+lLuOShvvcLCPY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Aleksandr_Khomutov_QR_codecreate.svg</t>
+    <t>certificate_Aleksandr_Khomutov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>12.29.2021</t>
@@ -793,7 +793,7 @@
     <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Tetiana_Diachuk_QR_codecreate.svg</t>
+    <t>certificate_Tetiana_Diachuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Yatskiv Vasyl</t>
@@ -808,7 +808,7 @@
     <t>HK7waE27kA6KJwApBM+T4LAk4aZqaE9IPDkBCxSy2kIEIufgsqcxvQ2rz19wEhtVeFadLyIdaeqHRdUIesIFeEY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yatskiv_Vasyl_QR_codecreate.svg</t>
+    <t>certificate_Yatskiv_Vasyl_QR_codecreate.svg</t>
   </si>
   <si>
     <t>24.05.2022</t>
@@ -826,7 +826,7 @@
     <t>HA5BwNFM/ySsemkCY6OpyYzGN2ynKMEaM8GLSihU2F8fIafDwOkoIh2PLwj1IdJ/pBYdBTic+Uho+017ECKjRNw=</t>
   </si>
   <si>
-    <t>QRs/certificate_Viktoriia_Kovalenko_QR_codecreate.svg</t>
+    <t>certificate_Viktoriia_Kovalenko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Artem Lytvynov</t>
@@ -841,7 +841,7 @@
     <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs=</t>
   </si>
   <si>
-    <t>QRs/certificate_Artem_Lytvynov_QR_codecreate.svg</t>
+    <t>certificate_Artem_Lytvynov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Taras Horun</t>
@@ -856,7 +856,7 @@
     <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE=</t>
   </si>
   <si>
-    <t>QRs/certificate_Taras_Horun_QR_codecreate.svg</t>
+    <t>certificate_Taras_Horun_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Anastasiia Slota</t>
@@ -871,7 +871,7 @@
     <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I=</t>
   </si>
   <si>
-    <t>QRs/certificate_Anastasiia_Slota_QR_codecreate.svg</t>
+    <t>certificate_Anastasiia_Slota_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Yuriy Melnychuk</t>
@@ -886,7 +886,7 @@
     <t>HLFj51cOIDt1qrqje2PXKxrtUxp1hjlrNJxyE2uD8TbiO2UKvbAI+WmR/rmJ3zP1nURKyFD3zP7orsfABAqigkg=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yuriy_Melnychuk_QR_codecreate.svg</t>
+    <t>certificate_Yuriy_Melnychuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Vladyslav Mazur</t>
@@ -901,7 +901,7 @@
     <t>HLRD02/6NJ7khwmd96Pm2n54FdjUOODqTq0B65DPCuq8DMRfhgsgzJhWRLUNGmka6qsOAlRYHVYcaFdURPX1T8I=</t>
   </si>
   <si>
-    <t>QRs/certificate_Vladyslav_Mazur_QR_codecreate.svg</t>
+    <t>certificate_Vladyslav_Mazur_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Hanna Zhurba</t>
@@ -916,7 +916,7 @@
     <t>G23T8nDlJs73D0lrECwkUe+mXYAtGdG9qjpSpWrU32pvXnfTe3DSqjCTi6rJFVs1Yzi2Fv3xylxp5MMR8p8VeRw=</t>
   </si>
   <si>
-    <t>QRs/certificate_Hanna_Zhurba_QR_codecreate.svg</t>
+    <t>certificate_Hanna_Zhurba_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Viktoriia Holoshchapova</t>
@@ -931,7 +931,7 @@
     <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y=</t>
   </si>
   <si>
-    <t>QRs/certificate_Viktoriia_Holoshchapova_QR_codecreate.svg</t>
+    <t>certificate_Viktoriia_Holoshchapova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Nikita Liashko</t>
@@ -946,7 +946,7 @@
     <t>HOt76U1Fm6QnHoInt0Smt+gAS3rWPhQyfPREvrRvrghaKyti2vcVHkLzN6+M0BSZWjdpmAEmApjrFE22eEaMtqg=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nikita_Liashko_QR_codecreate.svg</t>
+    <t>certificate_Nikita_Liashko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>27.05.2022</t>
@@ -964,7 +964,7 @@
     <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksandr_Ishchuk_QR_codecreate.svg</t>
+    <t>certificate_Oleksandr_Ishchuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>30.05.2022</t>
@@ -982,7 +982,7 @@
     <t>G5FFAmf/zMSc5uhA4w2of3MlPRCOl/nrSQ+EHORntQdSYge5OoFzcoywcRu+c8Al2Wn0vDT2gplOysnc9bkVKuU=</t>
   </si>
   <si>
-    <t>QRs/certificate_Sofiia_Zharkikh_QR_codecreate.svg</t>
+    <t>certificate_Sofiia_Zharkikh_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Ruslan Ovsiienko</t>
@@ -997,7 +997,7 @@
     <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Ruslan_Ovsiienko_QR_codecreate.svg</t>
+    <t>certificate_Ruslan_Ovsiienko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>31.05.2022</t>
@@ -1015,7 +1015,7 @@
     <t>HPxkFc6eqX1zkacNhXG+sBNXjVxyuH1KHnrh6B9b6e9zKf6E3ZsKgi7KviRGqMsROOkCltpUiNYA5H0saLu0V90=</t>
   </si>
   <si>
-    <t>QRs/certificate_Andrii_Kolhatin_QR_codecreate.svg</t>
+    <t>certificate_Andrii_Kolhatin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>02.06.2022</t>
@@ -1033,7 +1033,7 @@
     <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Volodymyr_Beimuk_QR_codecreate.svg</t>
+    <t>certificate_Volodymyr_Beimuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>03.06.2022</t>
@@ -1051,7 +1051,7 @@
     <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nazarii_Savorona_QR_codecreate.svg</t>
+    <t>certificate_Nazarii_Savorona_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Anton Balykov</t>
@@ -1066,7 +1066,7 @@
     <t>HAcsbhV60MNVfxYYDPk95TsJ8K0vzClCraIHX3jcMxTUYWejpT1skkLDABMaWybvl4vDwSwhutHvP3VeuSN3hqQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Anton_Balykov_QR_codecreate.svg</t>
+    <t>certificate_Anton_Balykov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>06.06.2022</t>
@@ -1084,7 +1084,7 @@
     <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Rodion_Nazarov_QR_codecreate.svg</t>
+    <t>certificate_Rodion_Nazarov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Denis Riabtsev</t>
@@ -1099,7 +1099,7 @@
     <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg=</t>
   </si>
   <si>
-    <t>QRs/certificate_Denis_Riabtsev_QR_codecreate.svg</t>
+    <t>certificate_Denis_Riabtsev_QR_codecreate.svg</t>
   </si>
   <si>
     <t>10.08.2022</t>
@@ -1117,7 +1117,7 @@
     <t>HFa8giAwmh7H5tdphmNqPT2w8NyaSL0zoQtw8vhcOO24OJF8JiXHbFSXbqsuWnvYikzoLh9en0UUOiDdQ/qu9iM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Ahadzhan_Piloian_QR_codecreate.svg</t>
+    <t>certificate_Ahadzhan_Piloian_QR_codecreate.svg</t>
   </si>
   <si>
     <t>16.08.2022</t>
@@ -1135,7 +1135,7 @@
     <t>HFDQ9yfu6U/EX1zGYWGMzuZllAhZ0Raovu7AG+Imc26Qa764AnS95/dSLQ7UQt9Go+rOAxw7mjemhwWS7bIocD8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Andrii_Tsemko_QR_codecreate.svg</t>
+    <t>certificate_Andrii_Tsemko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Oleg Chaika</t>
@@ -1150,7 +1150,7 @@
     <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleg_Chaika_QR_codecreate.svg</t>
+    <t>certificate_Oleg_Chaika_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Yehor Podporinov</t>
@@ -1165,7 +1165,7 @@
     <t>G2xO7B4Q+hdYRxBzyQaDhdsQu08oTGo4BF52Bl9If0c4DJKDCtwS9qoZx5Lj/2WEX02RiGVb6G02slDylbdqLAo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yehor_Podporinov_QR_codecreate.svg</t>
+    <t>certificate_Yehor_Podporinov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Artem Litkevych</t>
@@ -1180,7 +1180,7 @@
     <t>HM6uF51YbAt3DbFxvVNTpeS9X1oDpHw0zFnNxLs999PuJNc1azg1gITStdzGKi8OvKjdT95PGN9f/sRqjNlY+2o=</t>
   </si>
   <si>
-    <t>QRs/certificate_Artem_Litkevych_QR_codecreate.svg</t>
+    <t>certificate_Artem_Litkevych_QR_codecreate.svg</t>
   </si>
   <si>
     <t>17.08.2022</t>
@@ -1198,7 +1198,7 @@
     <t>HOknl3bfOj6VWiF2cke75fBKUEhoJiAdgJIjzXMYR+mPe0Kx1XuF8nIHN+9jrnsbzNkPdUhb6jHrVKXTbhV8Q9w=</t>
   </si>
   <si>
-    <t>QRs/certificate_Vadim_Mokropulo_QR_codecreate.svg</t>
+    <t>certificate_Vadim_Mokropulo_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Arsenii Trybukh</t>
@@ -1213,7 +1213,7 @@
     <t>HCM9Lxm2HfN4TKyTb1Hswsn5VJpsxgiJW5R+SepjJ0UeRlgsboEmN4/JokRrXfcmW+0+luqqgSqpIF/cWkAGIW0=</t>
   </si>
   <si>
-    <t>QRs/certificate_Arsenii_Trybukh_QR_codecreate.svg</t>
+    <t>certificate_Arsenii_Trybukh_QR_codecreate.svg</t>
   </si>
   <si>
     <t>18.08.2022</t>
@@ -1231,7 +1231,7 @@
     <t>G9Ch3H0JSIgK0D8+lUc+CVe5hh1/Qcz5M53LYvCPLGRtXm995jnkm8PhJ41ACFNTYNjNI1J86FZYJvp+vqILR7Y=</t>
   </si>
   <si>
-    <t>QRs/certificate_Khrystyna_Vysotska_QR_codecreate.svg</t>
+    <t>certificate_Khrystyna_Vysotska_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Mykhailo Shcholkin</t>
@@ -1246,7 +1246,7 @@
     <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Mykhailo_Shcholkin_QR_codecreate.svg</t>
+    <t>certificate_Mykhailo_Shcholkin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Sofiia Kireieva</t>
@@ -1261,7 +1261,7 @@
     <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk=</t>
   </si>
   <si>
-    <t>QRs/certificate_Sofiia_Kireieva_QR_codecreate.svg</t>
+    <t>certificate_Sofiia_Kireieva_QR_codecreate.svg</t>
   </si>
   <si>
     <t>19.08.2022</t>
@@ -1279,7 +1279,7 @@
     <t>G2jP4FhVjFgaeIXACmuv4NrkTHbT4Pw2fsgVYqydLjTHTp2bFOhYi9tu99P7C6MSdtXuYAkVEk7jPkH9tPRKMPw=</t>
   </si>
   <si>
-    <t>QRs/certificate_Alena_Sporova_QR_codecreate.svg</t>
+    <t>certificate_Alena_Sporova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Nikita Masych</t>
@@ -1294,7 +1294,7 @@
     <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nikita_Masych_QR_codecreate.svg</t>
+    <t>certificate_Nikita_Masych_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Mark Cherepovskyi</t>
@@ -1309,7 +1309,7 @@
     <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Mark_Cherepovskyi_QR_codecreate.svg</t>
+    <t>certificate_Mark_Cherepovskyi_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Viacheslav Horbanov</t>
@@ -1324,7 +1324,7 @@
     <t>HKpxDnYpWxDgjde7+Guu3BfglyLZHn8CSIxTn17IwxPuUfGHQDEVqrFM0MeyEBNAyZpkhKd/xI6fLRrcmAVWSDY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Viacheslav_Horbanov_QR_codecreate.svg</t>
+    <t>certificate_Viacheslav_Horbanov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>22.08.2022</t>
@@ -1342,7 +1342,7 @@
     <t>HHQI2fVR8mK2cT2CKboOJcWp2QYPiQNiw9VPCxmosNu9XigtlaKhIcX6aeB7MeRagImuPo4PKFwP3lV41PaiRWM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksii_Stepaniuk_QR_codecreate.svg</t>
+    <t>certificate_Oleksii_Stepaniuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Kyrylo Riabov</t>
@@ -1357,7 +1357,7 @@
     <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM=</t>
   </si>
   <si>
-    <t>QRs/certificate_Kyrylo_Riabov_QR_codecreate.svg</t>
+    <t>certificate_Kyrylo_Riabov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Oleksandr Kolesnyk</t>
@@ -1372,7 +1372,7 @@
     <t>G4lD8X41oRFy7CW2bmIknZKml/cSa36IX+BQ6GED5YydUXmGRs4WyhEEQrk67wJ4e1gzQZpb86PNONSIkqmbihc=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksandr_Kolesnyk_QR_codecreate.svg</t>
+    <t>certificate_Oleksandr_Kolesnyk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>23.08.2022</t>
@@ -1390,7 +1390,7 @@
     <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nikita_Chabaniuk_QR_codecreate.svg</t>
+    <t>certificate_Nikita_Chabaniuk_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Amina Yambulatova</t>
@@ -1405,7 +1405,7 @@
     <t>G9g/25PmJHzczdwBSSy0Zypc9ZTw+/+YXHbvvw/DHm/9W+MgQkve2zHsaohfLfd1pXPsRJ+laHxZzzZgleauDAs=</t>
   </si>
   <si>
-    <t>QRs/certificate_Amina_Yambulatova_QR_codecreate.svg</t>
+    <t>certificate_Amina_Yambulatova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Yegor Chukanov</t>
@@ -1420,7 +1420,7 @@
     <t>HGwq4A8p8OWC5Gh+teNqjrwCzbrT0mWdm2OuDoYtB3s1HgthxjnTOjy9hI+EerJD42qx4NTjmyKAB9cpY84rOKg=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yegor_Chukanov_QR_codecreate.svg</t>
+    <t>certificate_Yegor_Chukanov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>24.08.2022</t>
@@ -1438,7 +1438,7 @@
     <t>G1juo7SBQZageFwRNPEys5X51AkNFvYuzGZjEuZEEItYJwfD03FjUeOtDPlRHnYj8rBLuAf/gCVBc2g1fV3w4wY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Dmytro_Vynohradov_QR_codecreate.svg</t>
+    <t>certificate_Dmytro_Vynohradov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Mykhailo Sokolov</t>
@@ -1453,7 +1453,7 @@
     <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk=</t>
   </si>
   <si>
-    <t>QRs/certificate_Mykhailo_Sokolov_QR_codecreate.svg</t>
+    <t>certificate_Mykhailo_Sokolov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>25.08.2022</t>
@@ -1471,7 +1471,7 @@
     <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Illia_Popov_QR_codecreate.svg</t>
+    <t>certificate_Illia_Popov_QR_codecreate.svg</t>
   </si>
   <si>
     <t>26.08.2022</t>
@@ -1489,7 +1489,7 @@
     <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Mykola_Gora_QR_codecreate.svg</t>
+    <t>certificate_Mykola_Gora_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Artem Levkin</t>
@@ -1504,7 +1504,7 @@
     <t>G8ah5f2UjwoYEixl7OZKZrVAizGnQBy+lwuL+ammNcBqEjR8riRwunMmhjuzXKnQ8orFQJXmZhMvaCtDzItFhnw=</t>
   </si>
   <si>
-    <t>QRs/certificate_Artem_Levkin_QR_codecreate.svg</t>
+    <t>certificate_Artem_Levkin_QR_codecreate.svg</t>
   </si>
   <si>
     <t>29.08.2022</t>
@@ -1522,7 +1522,7 @@
     <t>G0ZjvUb5sgyD719aQ7ygiXigPsrGpMAmw0TdIjX2xBb4BuYLIXwlOY1LYnd5sdVo6jKKXK6g1s4UIJKuU8RPHew=</t>
   </si>
   <si>
-    <t>QRs/certificate_Natalya_Dolgova_QR_codecreate.svg</t>
+    <t>certificate_Natalya_Dolgova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Artem Zubrych</t>
@@ -1537,7 +1537,7 @@
     <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc=</t>
   </si>
   <si>
-    <t>QRs/certificate_Artem_Zubrych_QR_codecreate.svg</t>
+    <t>certificate_Artem_Zubrych_QR_codecreate.svg</t>
   </si>
   <si>
     <t>30.08.2022</t>
@@ -1555,7 +1555,7 @@
     <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E=</t>
   </si>
   <si>
-    <t>QRs/certificate_Valentyna_Lytvynova_QR_codecreate.svg</t>
+    <t>certificate_Valentyna_Lytvynova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Eugene Petrikeev</t>
@@ -1570,7 +1570,7 @@
     <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q=</t>
   </si>
   <si>
-    <t>QRs/certificate_Eugene_Petrikeev_QR_codecreate.svg</t>
+    <t>certificate_Eugene_Petrikeev_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Yurii Poberezhnyi</t>
@@ -1585,7 +1585,7 @@
     <t>G7odIa2nR2CTXihZ272zal5AhXr13DqLqqyxkYgyuEN7cLxIlWKECJnfXCeXzPqGH8fBfl9v7DunBuqlObCkULE=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yurii_Poberezhnyi_QR_codecreate.svg</t>
+    <t>certificate_Yurii_Poberezhnyi_QR_codecreate.svg</t>
   </si>
   <si>
     <t>07.09.2022</t>
@@ -1603,7 +1603,7 @@
     <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw=</t>
   </si>
   <si>
-    <t>QRs/certificate_Alina_Telnova_QR_codecreate.svg</t>
+    <t>certificate_Alina_Telnova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>07.12.2022</t>
@@ -1624,7 +1624,7 @@
     <t>Gxb5qLCO2gOVk0XmAl5V0xEK4mWcrjqA5qw51GpsOz7mIajkq6+QkZj9qyqPbzcd2vRlji2whyQPpa58B92Jpw4=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksandra_Ivanova_QR_codecreate.svg</t>
+    <t>certificate_Oleksandra_Ivanova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>08.12.2022</t>
@@ -1642,7 +1642,7 @@
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
-    <t>QRs/certificate_Ilona_Shevchenko_QR_codecreate.svg</t>
+    <t>certificate_Ilona_Shevchenko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Ievgeniia Bondar</t>
@@ -1657,7 +1657,7 @@
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
-    <t>QRs/certificate_Ievgeniia_Bondar_QR_codecreate.svg</t>
+    <t>certificate_Ievgeniia_Bondar_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Sofia Golets</t>
@@ -1672,7 +1672,7 @@
     <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
-    <t>QRs/certificate_Sofia_Golets_QR_codecreate.svg</t>
+    <t>certificate_Sofia_Golets_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Mykyta Tsyvinskyi</t>
@@ -1687,7 +1687,7 @@
     <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
-    <t>QRs/certificate_Mykyta_Tsyvinskyi_QR_codecreate.svg</t>
+    <t>certificate_Mykyta_Tsyvinskyi_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Cryptography and information security theory</t>
@@ -1726,7 +1726,7 @@
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>QRs/certificate_Kateryna_Hordiienko_QR_codecreate.svg</t>
+    <t>certificate_Kateryna_Hordiienko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>12.12.2022</t>
@@ -1753,7 +1753,7 @@
     <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
-    <t>QRs/certificate_Yuliia_Aritkulova_QR_codecreate.svg</t>
+    <t>certificate_Yuliia_Aritkulova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Oleksandr Yevtushenko</t>
@@ -1768,7 +1768,7 @@
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
-    <t>QRs/certificate_Oleksandr_Yevtushenko_QR_codecreate.svg</t>
+    <t>certificate_Oleksandr_Yevtushenko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Mariia Mahdalina</t>
@@ -1783,7 +1783,7 @@
     <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
-    <t>QRs/certificate_Mariia_Mahdalina_QR_codecreate.svg</t>
+    <t>certificate_Mariia_Mahdalina_QR_codecreate.svg</t>
   </si>
   <si>
     <t>766041da4e35a4d0486d</t>
@@ -1810,7 +1810,7 @@
     <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
-    <t>QRs/certificate_Anastasia_Andreeva_QR_codecreate.svg</t>
+    <t>certificate_Anastasia_Andreeva_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Polina Reshetnikova</t>
@@ -1825,7 +1825,7 @@
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
-    <t>QRs/certificate_Polina_Reshetnikova_QR_codecreate.svg</t>
+    <t>certificate_Polina_Reshetnikova_QR_codecreate.svg</t>
   </si>
   <si>
     <t>93620030db08953cbf17</t>
@@ -1870,7 +1870,7 @@
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
-    <t>QRs/certificate_Pasha_Charovatiy_QR_codecreate.svg</t>
+    <t>certificate_Pasha_Charovatiy_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Dmytro Serhiienko</t>
@@ -1885,7 +1885,7 @@
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>QRs/certificate_Dmytro_Serhiienko_QR_codecreate.svg</t>
+    <t>certificate_Dmytro_Serhiienko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Vladislav Dmitrenko</t>
@@ -1900,7 +1900,7 @@
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
-    <t>QRs/certificate_Vladislav_Dmitrenko_QR_codecreate.svg</t>
+    <t>certificate_Vladislav_Dmitrenko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Marina Rindina</t>
@@ -1915,7 +1915,7 @@
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
-    <t>QRs/certificate_Marina_Rindina_QR_codecreate.svg</t>
+    <t>certificate_Marina_Rindina_QR_codecreate.svg</t>
   </si>
   <si>
     <t>15.12.2022</t>
@@ -1933,7 +1933,7 @@
     <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
   </si>
   <si>
-    <t>QRs/certificate_Nazar_Franko_QR_codecreate.svg</t>
+    <t>certificate_Nazar_Franko_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Olha Drahomeretska</t>
@@ -1948,7 +1948,7 @@
     <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
-    <t>QRs/certificate_Olha_Drahomeretska_QR_codecreate.svg</t>
+    <t>certificate_Olha_Drahomeretska_QR_codecreate.svg</t>
   </si>
   <si>
     <t>Maksym Cherniak</t>
@@ -1963,7 +1963,7 @@
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
-    <t>QRs/certificate_Maksym_Cherniak_QR_codecreate.svg</t>
+    <t>certificate_Maksym_Cherniak_QR_codecreate.svg</t>
   </si>
   <si>
     <t>3bf214d846d708bfad51</t>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
   <si>
     <t>Date</t>
   </si>
@@ -22,10 +21,10 @@
     <t>Participant</t>
   </si>
   <si>
-    <t>Course Title</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
+    <t xml:space="preserve">Біткоїн та криптовалюти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial Number</t>
   </si>
   <si>
     <t>Note</t>
@@ -34,25 +33,25 @@
     <t>Certificate</t>
   </si>
   <si>
-    <t>Data Hash</t>
-  </si>
-  <si>
-    <t>Transaction Hash</t>
+    <t xml:space="preserve">Data Hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction Hash</t>
   </si>
   <si>
     <t>Signature</t>
   </si>
   <si>
-    <t>Digital Certificate</t>
+    <t xml:space="preserve">Digital Certificate</t>
   </si>
   <si>
     <t>25.06.2015</t>
   </si>
   <si>
-    <t>Петро Петрович Воробієнко</t>
-  </si>
-  <si>
-    <t>Біткоїн та криптовалюти</t>
+    <t xml:space="preserve">Петро Петрович Воробієнко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptocurrencies and Distributed Systems</t>
   </si>
   <si>
     <t>6a4ffdbe1ed0f8840e14</t>
@@ -73,10 +72,7 @@
     <t>10.05.2016</t>
   </si>
   <si>
-    <t>Nikita Magda</t>
-  </si>
-  <si>
-    <t>Cryptocurrencies and Distributed Systems</t>
+    <t xml:space="preserve">Nikita Magda</t>
   </si>
   <si>
     <t>120bd82d7172f419e94a</t>
@@ -91,7 +87,7 @@
     <t>certificate_Nikita_Magda_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Нестеров Максим</t>
+    <t xml:space="preserve">Нестеров Максим</t>
   </si>
   <si>
     <t>7776d9c6e0001a76107b</t>
@@ -106,7 +102,7 @@
     <t>certificate_Нестеров_Максим_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Alexey Shendrick</t>
+    <t xml:space="preserve">Alexey Shendrick</t>
   </si>
   <si>
     <t>713facacdbf8f652c861</t>
@@ -121,7 +117,7 @@
     <t>certificate_Alexey_Shendrick_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Anastasia Sapozhkova</t>
+    <t xml:space="preserve">Anastasia Sapozhkova</t>
   </si>
   <si>
     <t>bc62e9ab6329532534ac</t>
@@ -136,7 +132,7 @@
     <t>certificate_Anastasia_Sapozhkova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Den Galkin</t>
+    <t xml:space="preserve">Den Galkin</t>
   </si>
   <si>
     <t>3e163d56162b3979e4ba</t>
@@ -151,7 +147,7 @@
     <t>certificate_Den_Galkin_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Daniyil Yakovlev</t>
+    <t xml:space="preserve">Daniyil Yakovlev</t>
   </si>
   <si>
     <t>891f08e57eb1bd3bea4e</t>
@@ -166,7 +162,7 @@
     <t>certificate_Daniyil_Yakovlev_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Алексей Демидов</t>
+    <t xml:space="preserve">Алексей Демидов</t>
   </si>
   <si>
     <t>c590c783aa219fbe06df</t>
@@ -181,7 +177,7 @@
     <t>certificate_Алексей_Демидов_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Анатолий Дедов</t>
+    <t xml:space="preserve">Анатолий Дедов</t>
   </si>
   <si>
     <t>6819c42faf3df4b54606</t>
@@ -196,7 +192,7 @@
     <t>certificate_Анатолий_Дедов_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Денис Руденко</t>
+    <t xml:space="preserve">Денис Руденко</t>
   </si>
   <si>
     <t>feb2f6fb9b7013cdb755</t>
@@ -211,7 +207,7 @@
     <t>certificate_Денис_Руденко_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Illia Fariatiev</t>
+    <t xml:space="preserve">Illia Fariatiev</t>
   </si>
   <si>
     <t>fda42cc06646502437e9</t>
@@ -226,7 +222,7 @@
     <t>certificate_Illia_Fariatiev_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Костюк Александр</t>
+    <t xml:space="preserve">Костюк Александр</t>
   </si>
   <si>
     <t>a6fb5a41b6d13e14df85</t>
@@ -241,7 +237,7 @@
     <t>certificate_Костюк_Александр_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Марина Боровая</t>
+    <t xml:space="preserve">Марина Боровая</t>
   </si>
   <si>
     <t>9b118e6f29f1ede24171</t>
@@ -256,7 +252,7 @@
     <t>certificate_Марина_Боровая_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Мордвинов Роман Игоревич</t>
+    <t xml:space="preserve">Мордвинов Роман Игоревич</t>
   </si>
   <si>
     <t>5c1b9e808df46c68b681</t>
@@ -271,7 +267,7 @@
     <t>certificate_Мордвинов_Роман_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Сергей Романько</t>
+    <t xml:space="preserve">Сергей Романько</t>
   </si>
   <si>
     <t>6518718807d5eb30c6c9</t>
@@ -286,7 +282,7 @@
     <t>certificate_Сергей_Романько_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Синельников Александр</t>
+    <t xml:space="preserve">Синельников Александр</t>
   </si>
   <si>
     <t>7ab727f74724666241da</t>
@@ -301,7 +297,7 @@
     <t>certificate_Синельников_Александр_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Скрипник Александр</t>
+    <t xml:space="preserve">Скрипник Александр</t>
   </si>
   <si>
     <t>647a501ba7b055539a36</t>
@@ -316,7 +312,7 @@
     <t>certificate_Скрипник_Александр_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Солонский Александр</t>
+    <t xml:space="preserve">Солонский Александр</t>
   </si>
   <si>
     <t>a79170e13976c7fb4b25</t>
@@ -334,7 +330,7 @@
     <t>31.10.2016</t>
   </si>
   <si>
-    <t>Anton Zaporozhchenko</t>
+    <t xml:space="preserve">Anton Zaporozhchenko</t>
   </si>
   <si>
     <t>68a22a5fd14f57c69fca</t>
@@ -349,7 +345,7 @@
     <t>certificate_Anton_Zaporozhchenko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Oleksiy Ponomorev</t>
+    <t xml:space="preserve">Oleksiy Ponomorev</t>
   </si>
   <si>
     <t>644ade322b6ff6e78ca7</t>
@@ -364,7 +360,7 @@
     <t>certificate_Oleksiy_Ponomorev_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Pavel Brilliant</t>
+    <t xml:space="preserve">Pavel Brilliant</t>
   </si>
   <si>
     <t>842e79dae3a380dfd109</t>
@@ -379,7 +375,7 @@
     <t>certificate_Pavel_Brilliant_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Volodymyr Kavetskyy</t>
+    <t xml:space="preserve">Volodymyr Kavetskyy</t>
   </si>
   <si>
     <t>4792c452f46dcad5dc28</t>
@@ -394,7 +390,7 @@
     <t>certificate_Volodymyr_Kavetskyy_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Vladyslav Minakov</t>
+    <t xml:space="preserve">Vladyslav Minakov</t>
   </si>
   <si>
     <t>2d4a0bde8c6689a48dd7</t>
@@ -412,7 +408,7 @@
     <t>03.03.2017</t>
   </si>
   <si>
-    <t>Yevheniia Shchypeleva</t>
+    <t xml:space="preserve">Yevheniia Shchypeleva</t>
   </si>
   <si>
     <t>0521a62341bdf875b13c</t>
@@ -427,7 +423,7 @@
     <t>certificate_Yevheniia_Shchypeleva_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Kolhatin Andrii</t>
+    <t xml:space="preserve">Kolhatin Andrii</t>
   </si>
   <si>
     <t>4f48e4e99c3da0fb42ca</t>
@@ -442,7 +438,10 @@
     <t>certificate_Kolhatin_Andrii_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Heorhii Kholodov</t>
+    <t xml:space="preserve">Heorhii Kholodov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blockchain and Distributed Systems</t>
   </si>
   <si>
     <t>d4b5738e77864e53ce12</t>
@@ -460,10 +459,7 @@
     <t>30.05.2018</t>
   </si>
   <si>
-    <t>Aleksandr Gnatyuk</t>
-  </si>
-  <si>
-    <t>Blockchain and Distributed Systems</t>
+    <t xml:space="preserve">Aleksandr Gnatyuk</t>
   </si>
   <si>
     <t>4f3f959ddb01c9c60ac6</t>
@@ -478,7 +474,7 @@
     <t>certificate_Aleksandr_Gnatyuk_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Aleksandr Kurbatov</t>
+    <t xml:space="preserve">Aleksandr Kurbatov</t>
   </si>
   <si>
     <t>a51bf90f03e9a9966a7b</t>
@@ -493,7 +489,7 @@
     <t>certificate_Aleksandr_Kurbatov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Aleksandr Ivanov</t>
+    <t xml:space="preserve">Aleksandr Ivanov</t>
   </si>
   <si>
     <t>61e95fea0ae6e1feb670</t>
@@ -508,7 +504,7 @@
     <t>certificate_Aleksandr_Ivanov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Artyom Ahmetzyanov</t>
+    <t xml:space="preserve">Artyom Ahmetzyanov</t>
   </si>
   <si>
     <t>0002559ec4d84de76125</t>
@@ -523,7 +519,7 @@
     <t>certificate_Artyom_Ahmetzyanov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Oleksii Khramov</t>
+    <t xml:space="preserve">Oleksii Khramov</t>
   </si>
   <si>
     <t>4b7a3aafcdb6a121a2ad</t>
@@ -538,7 +534,7 @@
     <t>certificate_Oleksii_Khramov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Nodar Alyoshin</t>
+    <t xml:space="preserve">Nodar Alyoshin</t>
   </si>
   <si>
     <t>3ea0bd0948b83484cc43</t>
@@ -553,7 +549,7 @@
     <t>certificate_Nodar_Alyoshin_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Marina Osadchuk</t>
+    <t xml:space="preserve">Marina Osadchuk</t>
   </si>
   <si>
     <t>6a808d3f71a4b54e6a60</t>
@@ -568,7 +564,7 @@
     <t>certificate_Marina_Osadchuk_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Konstantin Nechvolod</t>
+    <t xml:space="preserve">Konstantin Nechvolod</t>
   </si>
   <si>
     <t>92bbf7707fb85ceb1820</t>
@@ -583,7 +579,7 @@
     <t>certificate_Konstantin_Nechvolod_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Ilya Svetaylo</t>
+    <t xml:space="preserve">Ilya Svetaylo</t>
   </si>
   <si>
     <t>fba37e527897160fa39e</t>
@@ -598,7 +594,10 @@
     <t>certificate_Ilya_Svetaylo_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Dmytro Mandych</t>
+    <t xml:space="preserve">Dmytro Mandych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Level in Decentralized Technologies</t>
   </si>
   <si>
     <t>943b36a0328f032a914c</t>
@@ -616,10 +615,7 @@
     <t>26.05.2020</t>
   </si>
   <si>
-    <t>Petr Murzin</t>
-  </si>
-  <si>
-    <t>Basic Level in Decentralized Technologies</t>
+    <t xml:space="preserve">Petr Murzin</t>
   </si>
   <si>
     <t>23f87cb21822a2962255</t>
@@ -637,7 +633,7 @@
     <t>28.05.2020</t>
   </si>
   <si>
-    <t>Lovkin Ivan</t>
+    <t xml:space="preserve">Lovkin Ivan</t>
   </si>
   <si>
     <t>26424cdcb5734d68da42</t>
@@ -655,7 +651,7 @@
     <t>30.05.2020</t>
   </si>
   <si>
-    <t>Nikita Moskovkin</t>
+    <t xml:space="preserve">Nikita Moskovkin</t>
   </si>
   <si>
     <t>8dd5355ff30fcc74f42b</t>
@@ -673,7 +669,7 @@
     <t>03.06.2020</t>
   </si>
   <si>
-    <t>Valeriy Gello</t>
+    <t xml:space="preserve">Valeriy Gello</t>
   </si>
   <si>
     <t>1440b21023e22e1aa226</t>
@@ -691,7 +687,7 @@
     <t>21.08.2020</t>
   </si>
   <si>
-    <t>Elizabeth Gurieva</t>
+    <t xml:space="preserve">Elizabeth Gurieva</t>
   </si>
   <si>
     <t>7dfdd6abd5c883c7c876</t>
@@ -709,7 +705,7 @@
     <t>15.09.2020</t>
   </si>
   <si>
-    <t>Alexander Zhovnuvaty</t>
+    <t xml:space="preserve">Alexander Zhovnuvaty</t>
   </si>
   <si>
     <t>7921fd5f449056d108af</t>
@@ -724,7 +720,7 @@
     <t>certificate_Alexander_Zhovnuvaty_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Nikolay Scherbakov</t>
+    <t xml:space="preserve">Nikolay Scherbakov</t>
   </si>
   <si>
     <t>7368eab2f4fa6157cb3f</t>
@@ -760,7 +756,10 @@
     <t>17.09.2020</t>
   </si>
   <si>
-    <t>Aleksandr Khomutov</t>
+    <t xml:space="preserve">Aleksandr Khomutov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginner at theoretical aspects blockchain technology</t>
   </si>
   <si>
     <t>95aa9e48e404a67e4d4b</t>
@@ -778,10 +777,7 @@
     <t>12.29.2021</t>
   </si>
   <si>
-    <t>Tetiana Diachuk</t>
-  </si>
-  <si>
-    <t>Beginner at theoretical aspects blockchain technology</t>
+    <t xml:space="preserve">Tetiana Diachuk</t>
   </si>
   <si>
     <t>c945a6a47e8cac4e234f</t>
@@ -796,7 +792,7 @@
     <t>certificate_Tetiana_Diachuk_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Yatskiv Vasyl</t>
+    <t xml:space="preserve">Yatskiv Vasyl</t>
   </si>
   <si>
     <t>512d5c0fea82c5ba9106</t>
@@ -814,7 +810,7 @@
     <t>24.05.2022</t>
   </si>
   <si>
-    <t>Viktoriia Kovalenko</t>
+    <t xml:space="preserve">Viktoriia Kovalenko</t>
   </si>
   <si>
     <t>c94b544cf914bfa7a011</t>
@@ -829,7 +825,7 @@
     <t>certificate_Viktoriia_Kovalenko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Artem Lytvynov</t>
+    <t xml:space="preserve">Artem Lytvynov</t>
   </si>
   <si>
     <t>62214459b916ac069b15</t>
@@ -844,7 +840,7 @@
     <t>certificate_Artem_Lytvynov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Taras Horun</t>
+    <t xml:space="preserve">Taras Horun</t>
   </si>
   <si>
     <t>321d5bc0b6acda5a08db</t>
@@ -859,7 +855,7 @@
     <t>certificate_Taras_Horun_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Anastasiia Slota</t>
+    <t xml:space="preserve">Anastasiia Slota</t>
   </si>
   <si>
     <t>5d71857f9a99d5d85ed7</t>
@@ -874,7 +870,7 @@
     <t>certificate_Anastasiia_Slota_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Yuriy Melnychuk</t>
+    <t xml:space="preserve">Yuriy Melnychuk</t>
   </si>
   <si>
     <t>4b973cdc099c10811c1b</t>
@@ -889,7 +885,7 @@
     <t>certificate_Yuriy_Melnychuk_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Vladyslav Mazur</t>
+    <t xml:space="preserve">Vladyslav Mazur</t>
   </si>
   <si>
     <t>e9bf9426eb214a6e36c8</t>
@@ -904,7 +900,7 @@
     <t>certificate_Vladyslav_Mazur_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Hanna Zhurba</t>
+    <t xml:space="preserve">Hanna Zhurba</t>
   </si>
   <si>
     <t>33571c3c57728ede717b</t>
@@ -919,7 +915,7 @@
     <t>certificate_Hanna_Zhurba_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Viktoriia Holoshchapova</t>
+    <t xml:space="preserve">Viktoriia Holoshchapova</t>
   </si>
   <si>
     <t>96250fd24ef42b3b059c</t>
@@ -934,7 +930,7 @@
     <t>certificate_Viktoriia_Holoshchapova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Nikita Liashko</t>
+    <t xml:space="preserve">Nikita Liashko</t>
   </si>
   <si>
     <t>638039974f462d2a16fa</t>
@@ -952,7 +948,7 @@
     <t>27.05.2022</t>
   </si>
   <si>
-    <t>Oleksandr Ishchuk</t>
+    <t xml:space="preserve">Oleksandr Ishchuk</t>
   </si>
   <si>
     <t>be6bd83b629a3c1a2c21</t>
@@ -970,7 +966,7 @@
     <t>30.05.2022</t>
   </si>
   <si>
-    <t>Sofiia Zharkikh</t>
+    <t xml:space="preserve">Sofiia Zharkikh</t>
   </si>
   <si>
     <t>ee2ce473b4ba491666e6</t>
@@ -985,7 +981,7 @@
     <t>certificate_Sofiia_Zharkikh_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Ruslan Ovsiienko</t>
+    <t xml:space="preserve">Ruslan Ovsiienko</t>
   </si>
   <si>
     <t>bde11c3468f03baaa52b</t>
@@ -1003,7 +999,7 @@
     <t>31.05.2022</t>
   </si>
   <si>
-    <t>Andrii Kolhatin</t>
+    <t xml:space="preserve">Andrii Kolhatin</t>
   </si>
   <si>
     <t>a6fcc6053dca29789592</t>
@@ -1021,7 +1017,7 @@
     <t>02.06.2022</t>
   </si>
   <si>
-    <t>Volodymyr Beimuk</t>
+    <t xml:space="preserve">Volodymyr Beimuk</t>
   </si>
   <si>
     <t>c34ea7755dcd2c595bc8</t>
@@ -1039,7 +1035,7 @@
     <t>03.06.2022</t>
   </si>
   <si>
-    <t>Nazarii Savorona</t>
+    <t xml:space="preserve">Nazarii Savorona</t>
   </si>
   <si>
     <t>f0b50ee7786302d43074</t>
@@ -1054,7 +1050,7 @@
     <t>certificate_Nazarii_Savorona_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Anton Balykov</t>
+    <t xml:space="preserve">Anton Balykov</t>
   </si>
   <si>
     <t>6471e2162a55dbf5dd4d</t>
@@ -1072,7 +1068,7 @@
     <t>06.06.2022</t>
   </si>
   <si>
-    <t>Rodion Nazarov</t>
+    <t xml:space="preserve">Rodion Nazarov</t>
   </si>
   <si>
     <t>d315e32b394432ee4f60</t>
@@ -1087,7 +1083,7 @@
     <t>certificate_Rodion_Nazarov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Denis Riabtsev</t>
+    <t xml:space="preserve">Denis Riabtsev</t>
   </si>
   <si>
     <t>9642ba4d9413419d673a</t>
@@ -1105,7 +1101,7 @@
     <t>10.08.2022</t>
   </si>
   <si>
-    <t>Ahadzhan Piloian</t>
+    <t xml:space="preserve">Ahadzhan Piloian</t>
   </si>
   <si>
     <t>35a047ff48ee73cae02b</t>
@@ -1123,7 +1119,7 @@
     <t>16.08.2022</t>
   </si>
   <si>
-    <t>Andrii Tsemko</t>
+    <t xml:space="preserve">Andrii Tsemko</t>
   </si>
   <si>
     <t>b8a00c902b36299bb436</t>
@@ -1138,7 +1134,7 @@
     <t>certificate_Andrii_Tsemko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Oleg Chaika</t>
+    <t xml:space="preserve">Oleg Chaika</t>
   </si>
   <si>
     <t>b12bfb82be4529b4d81c</t>
@@ -1153,7 +1149,7 @@
     <t>certificate_Oleg_Chaika_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Yehor Podporinov</t>
+    <t xml:space="preserve">Yehor Podporinov</t>
   </si>
   <si>
     <t>8b0b4aebba75393ae3d3</t>
@@ -1168,7 +1164,7 @@
     <t>certificate_Yehor_Podporinov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Artem Litkevych</t>
+    <t xml:space="preserve">Artem Litkevych</t>
   </si>
   <si>
     <t>2bdefe6ab583294a8e3a</t>
@@ -1186,7 +1182,7 @@
     <t>17.08.2022</t>
   </si>
   <si>
-    <t>Vadim Mokropulo</t>
+    <t xml:space="preserve">Vadim Mokropulo</t>
   </si>
   <si>
     <t>983a3391641e6d41e716</t>
@@ -1201,7 +1197,7 @@
     <t>certificate_Vadim_Mokropulo_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Arsenii Trybukh</t>
+    <t xml:space="preserve">Arsenii Trybukh</t>
   </si>
   <si>
     <t>c5f89ffab6fb6790398f</t>
@@ -1219,7 +1215,7 @@
     <t>18.08.2022</t>
   </si>
   <si>
-    <t>Khrystyna Vysotska</t>
+    <t xml:space="preserve">Khrystyna Vysotska</t>
   </si>
   <si>
     <t>2a0049e182ee0f576b0e</t>
@@ -1234,7 +1230,7 @@
     <t>certificate_Khrystyna_Vysotska_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Mykhailo Shcholkin</t>
+    <t xml:space="preserve">Mykhailo Shcholkin</t>
   </si>
   <si>
     <t>de78c058c82cb70d7785</t>
@@ -1249,7 +1245,7 @@
     <t>certificate_Mykhailo_Shcholkin_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Sofiia Kireieva</t>
+    <t xml:space="preserve">Sofiia Kireieva</t>
   </si>
   <si>
     <t>7a6968aff4e08534424f</t>
@@ -1267,7 +1263,7 @@
     <t>19.08.2022</t>
   </si>
   <si>
-    <t>Alena Sporova</t>
+    <t xml:space="preserve">Alena Sporova</t>
   </si>
   <si>
     <t>4f789ed064df7a17fb16</t>
@@ -1282,7 +1278,7 @@
     <t>certificate_Alena_Sporova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Nikita Masych</t>
+    <t xml:space="preserve">Nikita Masych</t>
   </si>
   <si>
     <t>483060d6ed3048a8dc01</t>
@@ -1297,7 +1293,7 @@
     <t>certificate_Nikita_Masych_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Mark Cherepovskyi</t>
+    <t xml:space="preserve">Mark Cherepovskyi</t>
   </si>
   <si>
     <t>c4879efd2b227fc0a0e3</t>
@@ -1312,7 +1308,7 @@
     <t>certificate_Mark_Cherepovskyi_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Viacheslav Horbanov</t>
+    <t xml:space="preserve">Viacheslav Horbanov</t>
   </si>
   <si>
     <t>805b929698577e9aca3f</t>
@@ -1330,7 +1326,7 @@
     <t>22.08.2022</t>
   </si>
   <si>
-    <t>Oleksii Stepaniuk</t>
+    <t xml:space="preserve">Oleksii Stepaniuk</t>
   </si>
   <si>
     <t>07d47b1d6f505d26390f</t>
@@ -1345,7 +1341,7 @@
     <t>certificate_Oleksii_Stepaniuk_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Kyrylo Riabov</t>
+    <t xml:space="preserve">Kyrylo Riabov</t>
   </si>
   <si>
     <t>6631cf2481552d016ebf</t>
@@ -1360,7 +1356,7 @@
     <t>certificate_Kyrylo_Riabov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Oleksandr Kolesnyk</t>
+    <t xml:space="preserve">Oleksandr Kolesnyk</t>
   </si>
   <si>
     <t>a4bc9b1320f2e1e710e9</t>
@@ -1378,7 +1374,7 @@
     <t>23.08.2022</t>
   </si>
   <si>
-    <t>Nikita Chabaniuk</t>
+    <t xml:space="preserve">Nikita Chabaniuk</t>
   </si>
   <si>
     <t>4b7f8d4f293f72815ab4</t>
@@ -1393,7 +1389,7 @@
     <t>certificate_Nikita_Chabaniuk_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Amina Yambulatova</t>
+    <t xml:space="preserve">Amina Yambulatova</t>
   </si>
   <si>
     <t>eb8c7fe60daa7572aee9</t>
@@ -1408,7 +1404,7 @@
     <t>certificate_Amina_Yambulatova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Yegor Chukanov</t>
+    <t xml:space="preserve">Yegor Chukanov</t>
   </si>
   <si>
     <t>40f94f67b8a8d87da643</t>
@@ -1426,7 +1422,7 @@
     <t>24.08.2022</t>
   </si>
   <si>
-    <t>Dmytro Vynohradov</t>
+    <t xml:space="preserve">Dmytro Vynohradov</t>
   </si>
   <si>
     <t>1ead312a6aebd3ebf09c</t>
@@ -1441,7 +1437,7 @@
     <t>certificate_Dmytro_Vynohradov_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Mykhailo Sokolov</t>
+    <t xml:space="preserve">Mykhailo Sokolov</t>
   </si>
   <si>
     <t>a7acdf8ffeb25acb9d16</t>
@@ -1459,7 +1455,7 @@
     <t>25.08.2022</t>
   </si>
   <si>
-    <t>Illia Popov</t>
+    <t xml:space="preserve">Illia Popov</t>
   </si>
   <si>
     <t>5cbc5e19fd5bb7d530d8</t>
@@ -1477,7 +1473,7 @@
     <t>26.08.2022</t>
   </si>
   <si>
-    <t>Mykola Gora</t>
+    <t xml:space="preserve">Mykola Gora</t>
   </si>
   <si>
     <t>792e88d6cc7d73abfb39</t>
@@ -1492,7 +1488,7 @@
     <t>certificate_Mykola_Gora_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Artem Levkin</t>
+    <t xml:space="preserve">Artem Levkin</t>
   </si>
   <si>
     <t>417f8fbf445be4909b81</t>
@@ -1510,7 +1506,7 @@
     <t>29.08.2022</t>
   </si>
   <si>
-    <t>Natalya Dolgova</t>
+    <t xml:space="preserve">Natalya Dolgova</t>
   </si>
   <si>
     <t>34ea29020672eb21280c</t>
@@ -1525,7 +1521,7 @@
     <t>certificate_Natalya_Dolgova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Artem Zubrych</t>
+    <t xml:space="preserve">Artem Zubrych</t>
   </si>
   <si>
     <t>bfdf2d5236562eef7543</t>
@@ -1543,7 +1539,7 @@
     <t>30.08.2022</t>
   </si>
   <si>
-    <t>Valentyna Lytvynova</t>
+    <t xml:space="preserve">Valentyna Lytvynova</t>
   </si>
   <si>
     <t>f4b8579fd5eced5139aa</t>
@@ -1558,7 +1554,7 @@
     <t>certificate_Valentyna_Lytvynova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Eugene Petrikeev</t>
+    <t xml:space="preserve">Eugene Petrikeev</t>
   </si>
   <si>
     <t>ff01796886d91f5df69e</t>
@@ -1573,7 +1569,7 @@
     <t>certificate_Eugene_Petrikeev_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Yurii Poberezhnyi</t>
+    <t xml:space="preserve">Yurii Poberezhnyi</t>
   </si>
   <si>
     <t>f58f1fc15134ceb66672</t>
@@ -1591,7 +1587,10 @@
     <t>07.09.2022</t>
   </si>
   <si>
-    <t>Alina Telnova</t>
+    <t xml:space="preserve">Alina Telnova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory of database organization and basic SQL</t>
   </si>
   <si>
     <t>29e5562b40059d121058</t>
@@ -1609,10 +1608,7 @@
     <t>07.12.2022</t>
   </si>
   <si>
-    <t>Oleksandra Ivanova</t>
-  </si>
-  <si>
-    <t>Theory of database organization and basic SQL</t>
+    <t xml:space="preserve">Oleksandra Ivanova</t>
   </si>
   <si>
     <t>af27ce942975c91a06db</t>
@@ -1630,7 +1626,7 @@
     <t>08.12.2022</t>
   </si>
   <si>
-    <t>Ilona Shevchenko</t>
+    <t xml:space="preserve">Ilona Shevchenko</t>
   </si>
   <si>
     <t>9477c5582b2ff96dc62b</t>
@@ -1645,7 +1641,7 @@
     <t>certificate_Ilona_Shevchenko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Ievgeniia Bondar</t>
+    <t xml:space="preserve">Ievgeniia Bondar</t>
   </si>
   <si>
     <t>53a0b93122b1b19f00b1</t>
@@ -1660,7 +1656,7 @@
     <t>certificate_Ievgeniia_Bondar_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Sofia Golets</t>
+    <t xml:space="preserve">Sofia Golets</t>
   </si>
   <si>
     <t>7175c0e9b3bfed99d34b</t>
@@ -1675,7 +1671,10 @@
     <t>certificate_Sofia_Golets_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Mykyta Tsyvinskyi</t>
+    <t xml:space="preserve">Mykyta Tsyvinskyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptography and information security theory</t>
   </si>
   <si>
     <t>d329fb86a98533895cc9</t>
@@ -1690,9 +1689,6 @@
     <t>certificate_Mykyta_Tsyvinskyi_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Cryptography and information security theory</t>
-  </si>
-  <si>
     <t>9ed407f8685442130e50</t>
   </si>
   <si>
@@ -1714,7 +1710,7 @@
     <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
-    <t>Kateryna Hordiienko</t>
+    <t xml:space="preserve">Kateryna Hordiienko</t>
   </si>
   <si>
     <t>c2d70295e9cd94ea36fa</t>
@@ -1741,7 +1737,7 @@
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
-    <t>Yuliia Aritkulova</t>
+    <t xml:space="preserve">Yuliia Aritkulova</t>
   </si>
   <si>
     <t>dcc49868ac0482916b0f</t>
@@ -1756,7 +1752,7 @@
     <t>certificate_Yuliia_Aritkulova_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Oleksandr Yevtushenko</t>
+    <t xml:space="preserve">Oleksandr Yevtushenko</t>
   </si>
   <si>
     <t>69469e3a141e8845c780</t>
@@ -1771,7 +1767,7 @@
     <t>certificate_Oleksandr_Yevtushenko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Mariia Mahdalina</t>
+    <t xml:space="preserve">Mariia Mahdalina</t>
   </si>
   <si>
     <t>82294a3b62b68728cf69</t>
@@ -1798,7 +1794,7 @@
     <t>13.12.2022</t>
   </si>
   <si>
-    <t>Anastasia Andreeva</t>
+    <t xml:space="preserve">Anastasia Andreeva</t>
   </si>
   <si>
     <t>b8204a738e7d7870dabd</t>
@@ -1813,7 +1809,7 @@
     <t>certificate_Anastasia_Andreeva_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Polina Reshetnikova</t>
+    <t xml:space="preserve">Polina Reshetnikova</t>
   </si>
   <si>
     <t>008db7e828231c897d19</t>
@@ -1858,7 +1854,7 @@
     <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
-    <t>Pasha Charovatiy</t>
+    <t xml:space="preserve">Pasha Charovatiy</t>
   </si>
   <si>
     <t>151f4183ce68ec59b82c</t>
@@ -1873,7 +1869,7 @@
     <t>certificate_Pasha_Charovatiy_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Dmytro Serhiienko</t>
+    <t xml:space="preserve">Dmytro Serhiienko</t>
   </si>
   <si>
     <t>42bdd76bce3b85dabf4b</t>
@@ -1888,7 +1884,7 @@
     <t>certificate_Dmytro_Serhiienko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Vladislav Dmitrenko</t>
+    <t xml:space="preserve">Vladislav Dmitrenko</t>
   </si>
   <si>
     <t>890c4726435f6d5a1c10</t>
@@ -1903,7 +1899,7 @@
     <t>certificate_Vladislav_Dmitrenko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Marina Rindina</t>
+    <t xml:space="preserve">Marina Rindina</t>
   </si>
   <si>
     <t>05f89d361327d9ef1679</t>
@@ -1921,7 +1917,7 @@
     <t>15.12.2022</t>
   </si>
   <si>
-    <t>Nazar Franko</t>
+    <t xml:space="preserve">Nazar Franko</t>
   </si>
   <si>
     <t>fec88d795aed9c59a04f</t>
@@ -1936,7 +1932,7 @@
     <t>certificate_Nazar_Franko_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Olha Drahomeretska</t>
+    <t xml:space="preserve">Olha Drahomeretska</t>
   </si>
   <si>
     <t>9b293cc55ae62c9db4d9</t>
@@ -1951,7 +1947,7 @@
     <t>certificate_Olha_Drahomeretska_QR_codecreate.svg</t>
   </si>
   <si>
-    <t>Maksym Cherniak</t>
+    <t xml:space="preserve">Maksym Cherniak</t>
   </si>
   <si>
     <t>ac2b88ac92caf80b1207</t>
@@ -1978,13 +1974,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2005,21 +2000,309 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2061,74 +2344,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2136,7 +2359,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2162,7 +2385,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2214,16 +2437,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2239,7 +2474,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2270,17 +2505,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="9" max="9" width="36.140625"/>
+    <col customWidth="1" min="10" max="10" width="72.8515625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2290,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2322,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2354,28 +2593,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2383,31 +2622,31 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -2415,31 +2654,31 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2447,31 +2686,31 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -2479,31 +2718,31 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -2511,31 +2750,31 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -2543,31 +2782,31 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>52</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -2575,31 +2814,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>58</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -2607,31 +2846,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -2639,31 +2878,31 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
         <v>67</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2671,31 +2910,31 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -2703,31 +2942,31 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -2735,31 +2974,31 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -2767,31 +3006,31 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>85</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
         <v>87</v>
       </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>88</v>
-      </c>
-      <c r="J16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -2799,31 +3038,31 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>93</v>
-      </c>
-      <c r="J17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -2831,31 +3070,31 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>98</v>
-      </c>
-      <c r="J18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2863,266 +3102,266 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>102</v>
       </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>103</v>
-      </c>
-      <c r="J19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
         <v>107</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
         <v>108</v>
       </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>109</v>
-      </c>
-      <c r="J20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
         <v>112</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>113</v>
       </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>114</v>
-      </c>
-      <c r="J21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
         <v>117</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>118</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>119</v>
-      </c>
-      <c r="J22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>121</v>
       </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
         <v>123</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>124</v>
-      </c>
-      <c r="J23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>126</v>
       </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
         <v>127</v>
       </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
         <v>128</v>
       </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>129</v>
-      </c>
-      <c r="J24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
         <v>131</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
         <v>132</v>
       </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
         <v>133</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
         <v>134</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>135</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
         <v>137</v>
       </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
         <v>138</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
         <v>139</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>140</v>
-      </c>
-      <c r="J26" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
         <v>142</v>
-      </c>
-      <c r="C27" t="s">
-        <v>149</v>
       </c>
       <c r="D27" t="s">
         <v>143</v>
@@ -3154,28 +3393,28 @@
         <v>148</v>
       </c>
       <c r="C28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" t="s">
         <v>149</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
         <v>150</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
         <v>151</v>
       </c>
-      <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>152</v>
-      </c>
-      <c r="J28" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="29">
@@ -3183,31 +3422,31 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
         <v>154</v>
       </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
         <v>155</v>
       </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
         <v>156</v>
       </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>157</v>
-      </c>
-      <c r="J29" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -3215,31 +3454,31 @@
         <v>147</v>
       </c>
       <c r="B30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
         <v>159</v>
       </c>
-      <c r="C30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
         <v>160</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
         <v>161</v>
       </c>
-      <c r="H30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>162</v>
-      </c>
-      <c r="J30" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31">
@@ -3247,31 +3486,31 @@
         <v>147</v>
       </c>
       <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
         <v>164</v>
       </c>
-      <c r="C31" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
         <v>165</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
         <v>166</v>
       </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>167</v>
-      </c>
-      <c r="J31" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="32">
@@ -3279,31 +3518,31 @@
         <v>147</v>
       </c>
       <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
         <v>169</v>
       </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
         <v>170</v>
       </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
         <v>171</v>
       </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>172</v>
-      </c>
-      <c r="J32" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -3311,31 +3550,31 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
         <v>174</v>
       </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
         <v>175</v>
       </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
         <v>176</v>
       </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>177</v>
-      </c>
-      <c r="J33" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34">
@@ -3343,31 +3582,31 @@
         <v>147</v>
       </c>
       <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
         <v>179</v>
       </c>
-      <c r="C34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
         <v>180</v>
       </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
         <v>181</v>
       </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>182</v>
-      </c>
-      <c r="J34" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35">
@@ -3375,31 +3614,31 @@
         <v>147</v>
       </c>
       <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
         <v>184</v>
       </c>
-      <c r="C35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
         <v>185</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
         <v>186</v>
       </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>187</v>
-      </c>
-      <c r="J35" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="36">
@@ -3407,31 +3646,31 @@
         <v>147</v>
       </c>
       <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
         <v>189</v>
       </c>
-      <c r="C36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
         <v>190</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
         <v>191</v>
       </c>
-      <c r="H36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>192</v>
-      </c>
-      <c r="J36" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="37">
@@ -3439,10 +3678,10 @@
         <v>147</v>
       </c>
       <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
         <v>194</v>
-      </c>
-      <c r="C37" t="s">
-        <v>201</v>
       </c>
       <c r="D37" t="s">
         <v>195</v>
@@ -3474,263 +3713,263 @@
         <v>200</v>
       </c>
       <c r="C38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" t="s">
         <v>201</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
         <v>202</v>
       </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
         <v>203</v>
       </c>
-      <c r="H38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>204</v>
-      </c>
-      <c r="J38" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
         <v>206</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
         <v>207</v>
       </c>
-      <c r="C39" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
         <v>208</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
         <v>209</v>
       </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>210</v>
-      </c>
-      <c r="J39" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" t="s">
         <v>212</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
         <v>213</v>
       </c>
-      <c r="C40" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
         <v>214</v>
       </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
         <v>215</v>
       </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>216</v>
-      </c>
-      <c r="J40" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" t="s">
         <v>218</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" t="s">
         <v>219</v>
       </c>
-      <c r="C41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
         <v>220</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
         <v>221</v>
       </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>222</v>
-      </c>
-      <c r="J41" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" t="s">
         <v>224</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" t="s">
         <v>225</v>
       </c>
-      <c r="C42" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
         <v>226</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
         <v>227</v>
       </c>
-      <c r="H42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>228</v>
-      </c>
-      <c r="J42" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
         <v>230</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
         <v>231</v>
       </c>
-      <c r="C43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
         <v>232</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
         <v>233</v>
       </c>
-      <c r="H43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>234</v>
-      </c>
-      <c r="J43" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
         <v>236</v>
       </c>
-      <c r="C44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
         <v>237</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
         <v>238</v>
       </c>
-      <c r="H44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>239</v>
-      </c>
-      <c r="J44" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" t="s">
         <v>241</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" t="s">
         <v>242</v>
       </c>
-      <c r="C45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
         <v>243</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
         <v>244</v>
       </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>245</v>
-      </c>
-      <c r="J45" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" t="s">
         <v>247</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>248</v>
-      </c>
-      <c r="C46" t="s">
-        <v>255</v>
       </c>
       <c r="D46" t="s">
         <v>249</v>
@@ -3762,28 +4001,28 @@
         <v>254</v>
       </c>
       <c r="C47" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" t="s">
         <v>255</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
         <v>256</v>
       </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
         <v>257</v>
       </c>
-      <c r="H47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>258</v>
-      </c>
-      <c r="J47" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="48">
@@ -3791,1610 +4030,1610 @@
         <v>253</v>
       </c>
       <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" t="s">
         <v>260</v>
       </c>
-      <c r="C48" t="s">
-        <v>255</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
         <v>261</v>
       </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
         <v>262</v>
       </c>
-      <c r="H48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>263</v>
-      </c>
-      <c r="J48" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
         <v>265</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" t="s">
         <v>266</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
         <v>267</v>
       </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
         <v>268</v>
       </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>269</v>
-      </c>
-      <c r="J49" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" t="s">
         <v>271</v>
       </c>
-      <c r="C50" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
         <v>272</v>
       </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
         <v>273</v>
       </c>
-      <c r="H50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>274</v>
-      </c>
-      <c r="J50" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" t="s">
         <v>276</v>
       </c>
-      <c r="C51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
         <v>277</v>
       </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
         <v>278</v>
       </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>279</v>
-      </c>
-      <c r="J51" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" t="s">
         <v>281</v>
       </c>
-      <c r="C52" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
         <v>282</v>
       </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
         <v>283</v>
       </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>284</v>
-      </c>
-      <c r="J52" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" t="s">
         <v>286</v>
       </c>
-      <c r="C53" t="s">
-        <v>255</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
         <v>287</v>
       </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
         <v>288</v>
       </c>
-      <c r="H53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>289</v>
-      </c>
-      <c r="J53" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" t="s">
         <v>291</v>
       </c>
-      <c r="C54" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
         <v>292</v>
       </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
         <v>293</v>
       </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>294</v>
-      </c>
-      <c r="J54" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" t="s">
         <v>296</v>
       </c>
-      <c r="C55" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
         <v>297</v>
       </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
         <v>298</v>
       </c>
-      <c r="H55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>299</v>
-      </c>
-      <c r="J55" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
         <v>301</v>
       </c>
-      <c r="C56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
         <v>302</v>
       </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
         <v>303</v>
       </c>
-      <c r="H56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>304</v>
-      </c>
-      <c r="J56" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" t="s">
         <v>265</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" t="s">
         <v>266</v>
       </c>
-      <c r="C57" t="s">
-        <v>255</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
         <v>267</v>
       </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
         <v>268</v>
       </c>
-      <c r="H57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>269</v>
-      </c>
-      <c r="J57" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B58" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" t="s">
         <v>306</v>
       </c>
-      <c r="C58" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
         <v>307</v>
       </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
         <v>308</v>
       </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>309</v>
-      </c>
-      <c r="J58" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" t="s">
         <v>311</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" t="s">
         <v>312</v>
       </c>
-      <c r="C59" t="s">
-        <v>255</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
         <v>314</v>
       </c>
-      <c r="H59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>315</v>
-      </c>
-      <c r="J59" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B60" t="s">
         <v>317</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" t="s">
         <v>318</v>
       </c>
-      <c r="C60" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
         <v>319</v>
       </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
         <v>320</v>
       </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>321</v>
-      </c>
-      <c r="J60" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" t="s">
         <v>323</v>
       </c>
-      <c r="C61" t="s">
-        <v>255</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
         <v>324</v>
       </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
         <v>325</v>
       </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>326</v>
-      </c>
-      <c r="J61" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" t="s">
         <v>328</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" t="s">
         <v>329</v>
       </c>
-      <c r="C62" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
         <v>330</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
         <v>331</v>
       </c>
-      <c r="H62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>332</v>
-      </c>
-      <c r="J62" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" t="s">
         <v>334</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" t="s">
         <v>335</v>
       </c>
-      <c r="C63" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
         <v>336</v>
       </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
         <v>337</v>
       </c>
-      <c r="H63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>338</v>
-      </c>
-      <c r="J63" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" t="s">
         <v>340</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
         <v>341</v>
       </c>
-      <c r="C64" t="s">
-        <v>255</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
         <v>342</v>
       </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
         <v>343</v>
       </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>344</v>
-      </c>
-      <c r="J64" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" t="s">
+        <v>248</v>
+      </c>
+      <c r="D65" t="s">
         <v>346</v>
       </c>
-      <c r="C65" t="s">
-        <v>255</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
         <v>347</v>
       </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
         <v>348</v>
       </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>349</v>
-      </c>
-      <c r="J65" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66" t="s">
         <v>351</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" t="s">
         <v>352</v>
       </c>
-      <c r="C66" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
         <v>353</v>
       </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
         <v>354</v>
       </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>355</v>
-      </c>
-      <c r="J66" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
         <v>357</v>
       </c>
-      <c r="C67" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
         <v>358</v>
       </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
         <v>359</v>
       </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>360</v>
-      </c>
-      <c r="J67" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
         <v>362</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>248</v>
+      </c>
+      <c r="D68" t="s">
         <v>363</v>
       </c>
-      <c r="C68" t="s">
-        <v>255</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
         <v>364</v>
       </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
         <v>365</v>
       </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>366</v>
-      </c>
-      <c r="J68" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" t="s">
         <v>368</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" t="s">
         <v>369</v>
       </c>
-      <c r="C69" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
         <v>370</v>
       </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
         <v>371</v>
       </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>372</v>
-      </c>
-      <c r="J69" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
         <v>374</v>
       </c>
-      <c r="C70" t="s">
-        <v>255</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
         <v>375</v>
       </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
         <v>376</v>
       </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>377</v>
-      </c>
-      <c r="J70" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" t="s">
+        <v>378</v>
+      </c>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" t="s">
         <v>379</v>
       </c>
-      <c r="C71" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
         <v>380</v>
       </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
         <v>381</v>
       </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>382</v>
-      </c>
-      <c r="J71" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B72" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" t="s">
         <v>384</v>
       </c>
-      <c r="C72" t="s">
-        <v>255</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
         <v>385</v>
       </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
         <v>386</v>
       </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>387</v>
-      </c>
-      <c r="J72" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" t="s">
         <v>389</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D73" t="s">
         <v>390</v>
       </c>
-      <c r="C73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
         <v>391</v>
       </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
         <v>392</v>
       </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>393</v>
-      </c>
-      <c r="J73" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B74" t="s">
+        <v>394</v>
+      </c>
+      <c r="C74" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" t="s">
         <v>395</v>
       </c>
-      <c r="C74" t="s">
-        <v>255</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
         <v>396</v>
       </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
         <v>397</v>
       </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>398</v>
-      </c>
-      <c r="J74" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>399</v>
+      </c>
+      <c r="B75" t="s">
         <v>400</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" t="s">
         <v>401</v>
       </c>
-      <c r="C75" t="s">
-        <v>255</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
         <v>402</v>
       </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
         <v>403</v>
       </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>404</v>
-      </c>
-      <c r="J75" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B76" t="s">
+        <v>405</v>
+      </c>
+      <c r="C76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" t="s">
         <v>406</v>
       </c>
-      <c r="C76" t="s">
-        <v>255</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
         <v>407</v>
       </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
         <v>408</v>
       </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>409</v>
-      </c>
-      <c r="J76" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B77" t="s">
+        <v>410</v>
+      </c>
+      <c r="C77" t="s">
+        <v>248</v>
+      </c>
+      <c r="D77" t="s">
         <v>411</v>
       </c>
-      <c r="C77" t="s">
-        <v>255</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
         <v>412</v>
       </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
         <v>413</v>
       </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>414</v>
-      </c>
-      <c r="J77" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" t="s">
         <v>416</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
         <v>417</v>
       </c>
-      <c r="C78" t="s">
-        <v>255</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
         <v>418</v>
       </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
         <v>419</v>
       </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>420</v>
-      </c>
-      <c r="J78" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B79" t="s">
+        <v>421</v>
+      </c>
+      <c r="C79" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" t="s">
         <v>422</v>
       </c>
-      <c r="C79" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
         <v>423</v>
       </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
         <v>424</v>
       </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>425</v>
-      </c>
-      <c r="J79" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s">
+        <v>426</v>
+      </c>
+      <c r="C80" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" t="s">
         <v>427</v>
       </c>
-      <c r="C80" t="s">
-        <v>255</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
         <v>428</v>
       </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
         <v>429</v>
       </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>430</v>
-      </c>
-      <c r="J80" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B81" t="s">
+        <v>431</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" t="s">
         <v>432</v>
       </c>
-      <c r="C81" t="s">
-        <v>255</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
         <v>433</v>
       </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
         <v>434</v>
       </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>435</v>
-      </c>
-      <c r="J81" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" t="s">
         <v>437</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" t="s">
         <v>438</v>
       </c>
-      <c r="C82" t="s">
-        <v>255</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
         <v>439</v>
       </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
         <v>440</v>
       </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>441</v>
-      </c>
-      <c r="J82" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s">
+        <v>442</v>
+      </c>
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
         <v>443</v>
       </c>
-      <c r="C83" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
         <v>444</v>
       </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
         <v>445</v>
       </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>446</v>
-      </c>
-      <c r="J83" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B84" t="s">
+        <v>447</v>
+      </c>
+      <c r="C84" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" t="s">
         <v>448</v>
       </c>
-      <c r="C84" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
         <v>449</v>
       </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
         <v>450</v>
       </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>451</v>
-      </c>
-      <c r="J84" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>452</v>
+      </c>
+      <c r="B85" t="s">
         <v>453</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" t="s">
         <v>454</v>
       </c>
-      <c r="C85" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
         <v>455</v>
       </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
         <v>456</v>
       </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>457</v>
-      </c>
-      <c r="J85" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B86" t="s">
+        <v>458</v>
+      </c>
+      <c r="C86" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" t="s">
         <v>459</v>
       </c>
-      <c r="C86" t="s">
-        <v>255</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
         <v>460</v>
       </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
         <v>461</v>
       </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>462</v>
-      </c>
-      <c r="J86" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" t="s">
+        <v>463</v>
+      </c>
+      <c r="C87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" t="s">
         <v>464</v>
       </c>
-      <c r="C87" t="s">
-        <v>255</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
         <v>465</v>
       </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
         <v>466</v>
       </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>467</v>
-      </c>
-      <c r="J87" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88" t="s">
         <v>469</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" t="s">
         <v>470</v>
       </c>
-      <c r="C88" t="s">
-        <v>255</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
         <v>471</v>
       </c>
-      <c r="E88" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
         <v>472</v>
       </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>473</v>
-      </c>
-      <c r="J88" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B89" t="s">
+        <v>474</v>
+      </c>
+      <c r="C89" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" t="s">
         <v>475</v>
       </c>
-      <c r="C89" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
         <v>476</v>
       </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
         <v>477</v>
       </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>478</v>
-      </c>
-      <c r="J89" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>479</v>
+      </c>
+      <c r="B90" t="s">
         <v>480</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" t="s">
         <v>481</v>
       </c>
-      <c r="C90" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
         <v>482</v>
       </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
         <v>483</v>
       </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>484</v>
-      </c>
-      <c r="J90" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>485</v>
+      </c>
+      <c r="B91" t="s">
         <v>486</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" t="s">
         <v>487</v>
       </c>
-      <c r="C91" t="s">
-        <v>255</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
         <v>488</v>
       </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
         <v>489</v>
       </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>490</v>
-      </c>
-      <c r="J91" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s">
+        <v>491</v>
+      </c>
+      <c r="C92" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" t="s">
         <v>492</v>
       </c>
-      <c r="C92" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
         <v>493</v>
       </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
         <v>494</v>
       </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>495</v>
-      </c>
-      <c r="J92" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>496</v>
+      </c>
+      <c r="B93" t="s">
         <v>497</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" t="s">
         <v>498</v>
       </c>
-      <c r="C93" t="s">
-        <v>255</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
         <v>499</v>
       </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
         <v>500</v>
       </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>501</v>
-      </c>
-      <c r="J93" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" t="s">
+        <v>502</v>
+      </c>
+      <c r="C94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" t="s">
         <v>503</v>
       </c>
-      <c r="C94" t="s">
-        <v>255</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
         <v>504</v>
       </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
         <v>505</v>
       </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>506</v>
-      </c>
-      <c r="J94" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>507</v>
+      </c>
+      <c r="B95" t="s">
         <v>508</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" t="s">
         <v>509</v>
       </c>
-      <c r="C95" t="s">
-        <v>255</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
         <v>510</v>
       </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
         <v>511</v>
       </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>512</v>
-      </c>
-      <c r="J95" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B96" t="s">
+        <v>513</v>
+      </c>
+      <c r="C96" t="s">
+        <v>248</v>
+      </c>
+      <c r="D96" t="s">
         <v>514</v>
       </c>
-      <c r="C96" t="s">
-        <v>255</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
         <v>515</v>
       </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
         <v>516</v>
       </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>517</v>
-      </c>
-      <c r="J96" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B97" t="s">
+        <v>518</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" t="s">
         <v>519</v>
       </c>
-      <c r="C97" t="s">
-        <v>255</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
         <v>520</v>
       </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
         <v>521</v>
       </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>522</v>
-      </c>
-      <c r="J97" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>523</v>
+      </c>
+      <c r="B98" t="s">
         <v>524</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>525</v>
-      </c>
-      <c r="C98" t="s">
-        <v>532</v>
       </c>
       <c r="D98" t="s">
         <v>526</v>
@@ -5426,135 +5665,135 @@
         <v>531</v>
       </c>
       <c r="C99" t="s">
+        <v>525</v>
+      </c>
+      <c r="D99" t="s">
         <v>532</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
         <v>533</v>
       </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
         <v>534</v>
       </c>
-      <c r="H99" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>535</v>
-      </c>
-      <c r="J99" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>536</v>
+      </c>
+      <c r="B100" t="s">
         <v>537</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>525</v>
+      </c>
+      <c r="D100" t="s">
         <v>538</v>
       </c>
-      <c r="C100" t="s">
-        <v>532</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
         <v>539</v>
       </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
         <v>540</v>
       </c>
-      <c r="H100" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>541</v>
-      </c>
-      <c r="J100" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B101" t="s">
+        <v>542</v>
+      </c>
+      <c r="C101" t="s">
+        <v>525</v>
+      </c>
+      <c r="D101" t="s">
         <v>543</v>
       </c>
-      <c r="C101" t="s">
-        <v>532</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
         <v>544</v>
       </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
         <v>545</v>
       </c>
-      <c r="H101" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>546</v>
-      </c>
-      <c r="J101" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B102" t="s">
+        <v>547</v>
+      </c>
+      <c r="C102" t="s">
+        <v>525</v>
+      </c>
+      <c r="D102" t="s">
         <v>548</v>
       </c>
-      <c r="C102" t="s">
-        <v>532</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
         <v>549</v>
       </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
         <v>550</v>
       </c>
-      <c r="H102" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>551</v>
-      </c>
-      <c r="J102" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B103" t="s">
+        <v>552</v>
+      </c>
+      <c r="C103" t="s">
         <v>553</v>
-      </c>
-      <c r="C103" t="s">
-        <v>558</v>
       </c>
       <c r="D103" t="s">
         <v>554</v>
@@ -5580,673 +5819,677 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B104" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C104" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D104" t="s">
+        <v>558</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
         <v>559</v>
       </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
         <v>560</v>
       </c>
-      <c r="H104" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" t="s">
-        <v>561</v>
-      </c>
       <c r="J104" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>561</v>
+      </c>
+      <c r="B105" t="s">
+        <v>474</v>
+      </c>
+      <c r="C105" t="s">
+        <v>525</v>
+      </c>
+      <c r="D105" t="s">
         <v>562</v>
       </c>
-      <c r="B105" t="s">
-        <v>475</v>
-      </c>
-      <c r="C105" t="s">
-        <v>532</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
         <v>563</v>
       </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
         <v>564</v>
       </c>
-      <c r="H105" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" t="s">
-        <v>565</v>
-      </c>
       <c r="J105" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s">
+        <v>565</v>
+      </c>
+      <c r="C106" t="s">
+        <v>525</v>
+      </c>
+      <c r="D106" t="s">
         <v>566</v>
       </c>
-      <c r="C106" t="s">
-        <v>532</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
         <v>567</v>
       </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
         <v>568</v>
       </c>
-      <c r="H106" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>569</v>
-      </c>
-      <c r="J106" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>570</v>
+      </c>
+      <c r="B107" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" t="s">
+        <v>525</v>
+      </c>
+      <c r="D107" t="s">
         <v>571</v>
       </c>
-      <c r="B107" t="s">
-        <v>432</v>
-      </c>
-      <c r="C107" t="s">
-        <v>532</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
         <v>572</v>
       </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
         <v>573</v>
       </c>
-      <c r="H107" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" t="s">
-        <v>574</v>
-      </c>
       <c r="J107" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B108" t="s">
+        <v>574</v>
+      </c>
+      <c r="C108" t="s">
+        <v>525</v>
+      </c>
+      <c r="D108" t="s">
         <v>575</v>
       </c>
-      <c r="C108" t="s">
-        <v>532</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
         <v>576</v>
       </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
         <v>577</v>
       </c>
-      <c r="H108" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>578</v>
-      </c>
-      <c r="J108" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B109" t="s">
+        <v>579</v>
+      </c>
+      <c r="C109" t="s">
+        <v>525</v>
+      </c>
+      <c r="D109" t="s">
         <v>580</v>
       </c>
-      <c r="C109" t="s">
-        <v>532</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
         <v>581</v>
       </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
         <v>582</v>
       </c>
-      <c r="H109" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>583</v>
-      </c>
-      <c r="J109" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B110" t="s">
+        <v>584</v>
+      </c>
+      <c r="C110" t="s">
+        <v>553</v>
+      </c>
+      <c r="D110" t="s">
         <v>585</v>
       </c>
-      <c r="C110" t="s">
-        <v>558</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
         <v>586</v>
       </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
         <v>587</v>
       </c>
-      <c r="H110" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>588</v>
-      </c>
-      <c r="J110" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B111" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C111" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D111" t="s">
+        <v>589</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
         <v>590</v>
       </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
         <v>591</v>
       </c>
-      <c r="H111" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" t="s">
-        <v>592</v>
-      </c>
       <c r="J111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>592</v>
+      </c>
+      <c r="B112" t="s">
         <v>593</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>525</v>
+      </c>
+      <c r="D112" t="s">
         <v>594</v>
       </c>
-      <c r="C112" t="s">
-        <v>532</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
         <v>595</v>
       </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
         <v>596</v>
       </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>597</v>
-      </c>
-      <c r="J112" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s">
+        <v>598</v>
+      </c>
+      <c r="C113" t="s">
+        <v>525</v>
+      </c>
+      <c r="D113" t="s">
         <v>599</v>
       </c>
-      <c r="C113" t="s">
-        <v>532</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
         <v>600</v>
       </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
         <v>601</v>
       </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>602</v>
-      </c>
-      <c r="J113" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B114" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C114" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D114" t="s">
+        <v>603</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
         <v>604</v>
       </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
         <v>605</v>
       </c>
-      <c r="H114" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" t="s">
-        <v>606</v>
-      </c>
       <c r="J114" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B115" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C115" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D115" t="s">
+        <v>606</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
         <v>607</v>
       </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
         <v>608</v>
       </c>
-      <c r="H115" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" t="s">
-        <v>609</v>
-      </c>
       <c r="J115" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>609</v>
+      </c>
+      <c r="B116" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" t="s">
+        <v>525</v>
+      </c>
+      <c r="D116" t="s">
         <v>610</v>
       </c>
-      <c r="B116" t="s">
-        <v>379</v>
-      </c>
-      <c r="C116" t="s">
-        <v>532</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
         <v>611</v>
       </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
         <v>612</v>
       </c>
-      <c r="H116" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" t="s">
-        <v>613</v>
-      </c>
       <c r="J116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B117" t="s">
+        <v>613</v>
+      </c>
+      <c r="C117" t="s">
+        <v>525</v>
+      </c>
+      <c r="D117" t="s">
         <v>614</v>
       </c>
-      <c r="C117" t="s">
-        <v>532</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
         <v>615</v>
       </c>
-      <c r="E117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
         <v>616</v>
       </c>
-      <c r="H117" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>617</v>
-      </c>
-      <c r="J117" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B118" t="s">
+        <v>618</v>
+      </c>
+      <c r="C118" t="s">
+        <v>553</v>
+      </c>
+      <c r="D118" t="s">
         <v>619</v>
       </c>
-      <c r="C118" t="s">
-        <v>558</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
         <v>620</v>
       </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
         <v>621</v>
       </c>
-      <c r="H118" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>622</v>
-      </c>
-      <c r="J118" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B119" t="s">
+        <v>623</v>
+      </c>
+      <c r="C119" t="s">
+        <v>553</v>
+      </c>
+      <c r="D119" t="s">
         <v>624</v>
       </c>
-      <c r="C119" t="s">
-        <v>558</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
         <v>625</v>
       </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
         <v>626</v>
       </c>
-      <c r="H119" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>627</v>
-      </c>
-      <c r="J119" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B120" t="s">
+        <v>628</v>
+      </c>
+      <c r="C120" t="s">
+        <v>525</v>
+      </c>
+      <c r="D120" t="s">
         <v>629</v>
       </c>
-      <c r="C120" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
         <v>630</v>
       </c>
-      <c r="E120" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
         <v>631</v>
       </c>
-      <c r="H120" t="s">
-        <v>14</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>632</v>
-      </c>
-      <c r="J120" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>633</v>
+      </c>
+      <c r="B121" t="s">
         <v>634</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
+        <v>525</v>
+      </c>
+      <c r="D121" t="s">
         <v>635</v>
       </c>
-      <c r="C121" t="s">
-        <v>532</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
         <v>636</v>
       </c>
-      <c r="E121" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
         <v>637</v>
       </c>
-      <c r="H121" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>638</v>
-      </c>
-      <c r="J121" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B122" t="s">
+        <v>639</v>
+      </c>
+      <c r="C122" t="s">
+        <v>553</v>
+      </c>
+      <c r="D122" t="s">
         <v>640</v>
       </c>
-      <c r="C122" t="s">
-        <v>558</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
         <v>641</v>
       </c>
-      <c r="E122" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
         <v>642</v>
       </c>
-      <c r="H122" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>643</v>
-      </c>
-      <c r="J122" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B123" t="s">
+        <v>644</v>
+      </c>
+      <c r="C123" t="s">
+        <v>644</v>
+      </c>
+      <c r="D123" t="s">
         <v>645</v>
       </c>
-      <c r="C123" t="s">
-        <v>645</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
         <v>646</v>
       </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
         <v>647</v>
       </c>
-      <c r="H123" t="s">
-        <v>14</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>648</v>
-      </c>
-      <c r="J123" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B124" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D124" t="s">
+        <v>649</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
         <v>650</v>
       </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
         <v>651</v>
       </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" t="s">
-        <v>652</v>
-      </c>
       <c r="J124" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>